--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -575,7 +575,7 @@
         <v>45545</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>46043</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45106.64317129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>46056.37918981481</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45812.38626157407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45859.35157407408</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>46030.36605324074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>45841.38859953704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45882.3721875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114.44133101852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45022</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45715.47814814815</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45742.53870370371</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44496.58844907407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45247.56151620371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45469.53998842592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>45840.45563657407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45680.61361111111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>46044.40725694445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>46042</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>46044.68267361111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>46048.4083912037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>46009.51313657407</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>46027</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>46057.37287037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>46056.48991898148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44795.59144675926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44858.42059027778</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44327.39894675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44327.39097222222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44460</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>44417.70143518518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44795.58167824074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44400.56368055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44340.65736111111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>44479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>44460</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>44529.48662037037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44532.6444212963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44400.53994212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44817</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44795.58773148148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>44663.42211805555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44308</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44858.59162037037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44256</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44492</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44383</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44400.55195601852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44400.50061342592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44711.63396990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44795.57931712963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>44858.42241898148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44425</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44343</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44327.39258101852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44327.396875</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44802.41177083334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44881.63907407408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>44705.48972222222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>44872.49866898148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44334.68707175926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44361.58487268518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44371.49859953704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44313</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44532.35103009259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>44643.42163194445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>44663.44337962963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44250</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>44355.33836805556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>44409.33064814815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>44384.58857638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>44460</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>44460.42206018518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>44327.40118055556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>44348.44310185185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>44358</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>44889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>45534.45524305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45156</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>45488.44724537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45615.39707175926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45611.59930555556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>45180.46878472222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>44804.53847222222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45617.82288194444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44890.52128472222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>45280.52896990741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>45548.50462962963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45205.40086805556</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>45547</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>45211</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>45167.61197916666</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>45252.81868055555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>45111.53038194445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>45617.34234953704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>45645.39519675926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45341.46197916667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>45715.42207175926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44950</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45772.41228009259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>45254.51929398148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>45887.35770833334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45754.54916666666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45596.34179398148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45747.58980324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>45434</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>45803.60325231482</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>44797.3377662037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45800.48542824074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45800.43626157408</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45800.65675925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>45803.45716435185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>45803.36275462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45803.38435185186</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45799.55334490741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45800.49399305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45800.49638888889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45887.35001157408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>45800.45778935185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45800.48849537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>45716.62736111111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45800.49899305555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>45618.51423611111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45054.4237037037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>45054.44943287037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>45884.5896875</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>45805.49575231481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>45611.59655092593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45625.65038194445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>45132.37506944445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>45726.56340277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>45889.55805555556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>45810.64354166666</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>45443.47413194444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>45888.42207175926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>45888.59596064815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>45889.48412037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>45889.55767361111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>45889.47886574074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45889.48163194444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45891.33346064815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45323.56510416666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>45744.56231481482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>45841.38190972222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44950.56905092593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>45817.58722222222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>45817.59430555555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45817.70028935185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45833.38398148148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45754.57960648148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45894.58084490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45715</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>45817.59944444444</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45896.50693287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45896.37104166667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>45835.62361111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>45819.66730324074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45898.35738425926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>45107.63166666667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>45819.5671412037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45880.38586805556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45432.6987037037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45799.56206018518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>45789.41380787037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45742.51152777778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44279.54775462963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>45621.4991087963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>45903.39806712963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>45821.34212962963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>45903.43053240741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>45821.32741898148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>45903.39152777778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45903.39596064815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>45903.64918981482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>45656.49635416667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>45903.44436342592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>45821.65914351852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>45443.3383912037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>45820.38311342592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>45646.41528935185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>45754.58219907407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>45905.4327662037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>45169.45846064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>45905.35064814815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45835.45553240741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45821.58765046296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45824.41335648148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45821.59091435185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>45898</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>45908.3884375</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45909.59766203703</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>45642.33047453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>44887</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>45911.4297337963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45777.38662037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45911.46778935185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45911.41474537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45827.34570601852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>45827.45775462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>45911.55394675926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45911.55607638889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45911.56153935185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>45911.41440972222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>45827.50730324074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>45827.3822337963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45911.45193287037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45757.61045138889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45827.3172337963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45917.33304398148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>45826.33542824074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>45337</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>45917.581875</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>45056.63667824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>45917.34569444445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>45048.62515046296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>45488.45084490741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>45581</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45041.56773148148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45919.92555555556</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>45833.47171296296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>45510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>45833.37363425926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>45922.59997685185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>45111.39857638889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45925.4483912037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45925.44523148148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45833.58438657408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45929.34912037037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45644.48552083333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45848.65737268519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45602.34721064815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45846.35457175926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44350.46327546296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45926.47118055556</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44239</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44239</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45027</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>45602</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>45602.34263888889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>45469.50715277778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>45223.58224537037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>45608.50689814815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45848.64854166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>45162</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44239</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44522.40350694444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>45846.3380787037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44267</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>45554.66199074074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>45848.65394675926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>45216.30402777778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45777.56392361111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>45554.6590162037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45762.31237268518</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>45926.41898148148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>45582.57228009259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44309.36331018519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44383.30501157408</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44816.58288194444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45590.36142361111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>45929.57289351852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>45929.57436342593</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>44501.49077546296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45526.66439814815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45617.52900462963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44525.3771412037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>45582.57607638889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45107.48458333333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>45930.45800925926</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>45835</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>45932.62010416666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>45839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45933.46466435185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45838.38739583334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45933.35277777778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>45932.62314814814</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>45840.64146990741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>45707.35554398148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>45184</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45840.46055555555</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45840.49201388889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45840.4965162037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45937.62039351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45937.610625</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>45939.37001157407</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>45937.60611111111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>45938.49456018519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45490</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>45840.46547453704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>45841.40467592593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>45840.63861111111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45139.65960648148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>45937.58770833333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>45937.43577546296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>45705</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>45109.84071759259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>45642.59554398148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>45937.6262037037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>45638</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>45181</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>45608.61949074074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45608.62261574074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>44700.6490162037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45719.64081018518</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45073</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45109.83574074074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45834</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>45842.39043981482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45204</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>45945.89071759259</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>45334</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>45849.59908564815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>45849.59491898148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>45947.48436342592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>45851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>45645.33822916666</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>45478</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>45441.70758101852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45254</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45254</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>45715.4665625</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45859.4297337963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45859.376875</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45756.43231481482</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45450.46739583334</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45366.33762731482</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45862.30469907408</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>45953.51040509259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>45952.42239583333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>45953.46417824074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>45488.46547453704</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44712.42891203704</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>45946.38253472222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45301</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45870</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45957.54447916667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>45954.7355787037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>45954.43909722222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>45237.47232638889</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>45957.40206018519</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>45958.38793981481</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>45958.39484953704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>45747.33708333333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>45755.4960300926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>45488.47298611111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45959.55204861111</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45719.37508101852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>45342.40693287037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>45551.58315972222</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>45966.38342592592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>45966.60378472223</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45883.49462962963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45967.33152777778</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45967.33255787037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>45967.4474537037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>45646.33236111111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>45883.62131944444</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44964</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>45754.34134259259</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>45754.36008101852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>45679.57982638889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>45330.44824074074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45972.53399305556</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>45973.51217592593</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45973.33715277778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>45973.35025462963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>45972.34230324074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>45586.54471064815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45973.36832175926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45973.4175462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45973.42826388889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45972.33707175926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45972.6244212963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>45973.39857638889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>45973.4030787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45975.35673611111</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45106.63590277778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45820.57949074074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45812.46144675926</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>45978.53877314815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>45978.56181712963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>45978.59431712963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>45978.59633101852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45884.59181712963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45978.49068287037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45978.55541666667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>45978.53752314814</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>45978.44311342593</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45674.64923611111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45981.34307870371</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45258.52659722222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>46027.59798611111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>45596.92895833333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>45985.45576388889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44342</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>45291.52712962963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>45558.50545138889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>45985.45773148148</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>45630.35421296296</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         <v>46027.51408564814</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45624.92115740741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45982.66631944444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45625.33287037037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>46027.63125</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>46027.59274305555</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>46027.61621527778</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>46027.61108796296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>45986.68657407408</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>46029.38326388889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>46029.38788194444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>46029.38126157408</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>46029.38519675926</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>45986.61143518519</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>46029.6222337963</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>45551.59668981482</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>45986.61519675926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>46029.40497685185</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45986.67872685185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45986.62328703704</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         <v>45733.57708333333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>46031.54403935185</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27260,7 +27260,7 @@
         <v>46031.59362268518</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>45608.46461805556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44391</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>45988.4421412037</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>46031.50452546297</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>46031.51228009259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>44862.33306712963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>46031.50038194445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>46031.50792824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         <v>46031.49777777777</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>46033.53333333333</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>46034.3709837963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>46034.63491898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28011,7 +28011,7 @@
         <v>46035.450625</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
         <v>45649.34438657408</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         <v>46034.62466435185</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28182,7 +28182,7 @@
         <v>46019</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>46034.61875</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>46034.62362268518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>46034.48016203703</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45608.58549768518</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>46035.48829861111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>46034.59131944444</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>46035.44954861111</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>46035.65653935185</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>46035.65622685185</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>46036.47611111111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>46036.48780092593</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>44377</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45758.40640046296</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>46036.44969907407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29052,7 +29052,7 @@
         <v>46036.67746527777</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29109,7 +29109,7 @@
         <v>45994.32405092593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>45995.64913194445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29228,7 +29228,7 @@
         <v>45600.48857638889</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29285,7 +29285,7 @@
         <v>46036.45693287037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29342,7 +29342,7 @@
         <v>46036.60131944445</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>46036.60565972222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29456,7 +29456,7 @@
         <v>46036.67384259259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>46036.59059027778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29570,7 +29570,7 @@
         <v>46036.37615740741</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29627,7 +29627,7 @@
         <v>46036.6075</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29684,7 +29684,7 @@
         <v>46036.67594907407</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>46036.49285879629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>46037.54952546296</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29855,7 +29855,7 @@
         <v>45995.60189814815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>46036.48025462963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>45994.47068287037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30036,7 +30036,7 @@
         <v>46037.54207175926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30093,7 +30093,7 @@
         <v>46036.46466435185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30150,7 +30150,7 @@
         <v>46037.46747685185</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>46036.63581018519</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>46037.470625</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>46037.49280092592</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>46021</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>46038.57928240741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>45455.3833912037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>45469.3924537037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>46041.50413194444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>46038.66013888889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>46038.625625</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>46041.40201388889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>46038.44782407407</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>46038.57648148148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>46038.58046296296</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>46041.57511574074</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>46038.33611111111</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>46021</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>45996.37003472223</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31258,7 +31258,7 @@
         <v>46041.6021875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31315,7 +31315,7 @@
         <v>44883.78270833333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31377,7 +31377,7 @@
         <v>46038.48903935185</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31434,7 +31434,7 @@
         <v>46043.37112268519</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31491,7 +31491,7 @@
         <v>46043.40673611111</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31548,7 +31548,7 @@
         <v>46042.53480324074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>46043.49481481482</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>46043.37221064815</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>46043.40189814815</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>46000.53678240741</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>46042.64138888889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>45554.57899305555</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>46027.39123842592</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>46043.46627314815</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>46043.49569444444</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>46042.55055555556</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>46042.35134259259</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>46038</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>46042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>46044.40581018518</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>46003.36434027777</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>46044.3909375</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>46036</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32614,7 +32614,7 @@
         <v>46036</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45620.68857638889</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>46045.32743055555</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>46045.33702546296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>46021</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>45203.60052083333</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>46021</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>46021</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>46027.50319444444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>46028.86578703704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>46029.34457175926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33256,7 +33256,7 @@
         <v>46044.40465277778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33313,7 +33313,7 @@
         <v>46045.45112268518</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33370,7 +33370,7 @@
         <v>46044.68452546297</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>46044.68048611111</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33484,7 +33484,7 @@
         <v>46038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>46027.49688657407</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>46028.80164351852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>46028.81819444444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>46044.45016203704</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>46028.85481481482</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>46044.39172453704</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>46036</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>46044.68167824074</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>46044.89736111111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>46045.32310185185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34126,7 +34126,7 @@
         <v>46045.34884259259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>46038</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>46023.67790509259</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>46023.68649305555</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>46048.3558912037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34426,7 +34426,7 @@
         <v>46049.84189814814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34483,7 +34483,7 @@
         <v>46049.84784722222</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34540,7 +34540,7 @@
         <v>46048.4766087963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34597,7 +34597,7 @@
         <v>46049.84559027778</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34654,7 +34654,7 @@
         <v>46049.81511574074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34711,7 +34711,7 @@
         <v>46049.81664351852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34768,7 +34768,7 @@
         <v>46049.59923611111</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
         <v>45574.35596064815</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>46048.40377314815</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34944,7 +34944,7 @@
         <v>45069</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35001,7 +35001,7 @@
         <v>46048.6440162037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35058,7 +35058,7 @@
         <v>46048.68467592593</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35115,7 +35115,7 @@
         <v>46049.84465277778</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35172,7 +35172,7 @@
         <v>46047.62123842593</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35229,7 +35229,7 @@
         <v>46047.74475694444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>46048.35344907407</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>46048.57344907407</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45398.67929398148</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35467,7 +35467,7 @@
         <v>46048.64078703704</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35524,7 +35524,7 @@
         <v>46049.76145833333</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>46048.39998842592</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35648,7 +35648,7 @@
         <v>46006.55280092593</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35705,7 +35705,7 @@
         <v>45134</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35767,7 +35767,7 @@
         <v>45134</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         <v>46049.83738425926</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35891,7 +35891,7 @@
         <v>46048.3146875</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35953,7 +35953,7 @@
         <v>46047.30560185185</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36010,7 +36010,7 @@
         <v>46048.67299768519</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36067,7 +36067,7 @@
         <v>46048.42685185185</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>46007.43958333333</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>45989.45607638889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36248,7 +36248,7 @@
         <v>46046.81304398148</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>45646.4966087963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>46049.73991898148</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>46048.86174768519</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36481,7 +36481,7 @@
         <v>46049.62439814815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36538,7 +36538,7 @@
         <v>46048.42388888889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>46048.51607638889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>46048.39863425926</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36724,7 +36724,7 @@
         <v>46051.78497685185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36781,7 +36781,7 @@
         <v>46043</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>44839</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36905,7 +36905,7 @@
         <v>46050.37032407407</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36967,7 +36967,7 @@
         <v>46009.65140046296</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37029,7 +37029,7 @@
         <v>46050.36653935185</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37091,7 +37091,7 @@
         <v>46050.42256944445</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>46034.64438657407</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>46043</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>46044</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>46009.36662037037</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>46050.65528935185</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37453,7 +37453,7 @@
         <v>46050.39554398148</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>46050.40049768519</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>46051.79657407408</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37634,7 +37634,7 @@
         <v>46050.45982638889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>46050.64810185185</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37758,7 +37758,7 @@
         <v>46050.36358796297</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37820,7 +37820,7 @@
         <v>46050.38971064815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>46050.39192129629</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37944,7 +37944,7 @@
         <v>46050.46310185185</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>46050.66814814815</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>45706.64928240741</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44496.48552083333</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38187,7 +38187,7 @@
         <v>46051.46790509259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38244,7 +38244,7 @@
         <v>46051.47976851852</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38301,7 +38301,7 @@
         <v>46050.66034722222</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>46051.59861111111</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>46051.40638888889</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>46050.37806712963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         <v>46042</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38601,7 +38601,7 @@
         <v>46008.7390625</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38658,7 +38658,7 @@
         <v>46052.50318287037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38715,7 +38715,7 @@
         <v>46052.54532407408</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38777,7 +38777,7 @@
         <v>46052.54809027778</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38839,7 +38839,7 @@
         <v>46052.55412037037</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38901,7 +38901,7 @@
         <v>44460.39326388889</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38958,7 +38958,7 @@
         <v>46052.60164351852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>46052.41415509259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39077,7 +39077,7 @@
         <v>46052.53769675926</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39139,7 +39139,7 @@
         <v>46055.59766203703</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39196,7 +39196,7 @@
         <v>46055.60109953704</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39253,7 +39253,7 @@
         <v>46055.4175925926</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39310,7 +39310,7 @@
         <v>46055.49107638889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39372,7 +39372,7 @@
         <v>45621.57118055555</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39434,7 +39434,7 @@
         <v>46055.62168981481</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>46053.52635416666</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>46053.53597222222</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
         <v>46024</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45699.43766203704</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>45742.53079861111</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>46055.69435185185</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>46052.49719907407</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>46052.52888888889</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>46021</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>46055.63435185186</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>46052.55074074074</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>46055.61903935186</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>46055.62414351852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>46052.34869212963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40324,7 +40324,7 @@
         <v>44406.33724537037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40381,7 +40381,7 @@
         <v>45184</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40443,7 +40443,7 @@
         <v>46052.70923611111</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40505,7 +40505,7 @@
         <v>44805</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40562,7 +40562,7 @@
         <v>46055.48247685185</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>46013.42375</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40686,7 +40686,7 @@
         <v>46013.42856481481</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>46042</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40810,7 +40810,7 @@
         <v>46052.42894675926</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40867,7 +40867,7 @@
         <v>46053.54109953704</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40924,7 +40924,7 @@
         <v>46055.64167824074</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>46021</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>46010.49428240741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>46052.49001157407</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>46057.72561342592</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>46057.82925925926</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>46056.45778935185</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>46057.53673611111</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>46056.65497685185</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>46056.63907407408</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>46056.45328703704</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>46056.45413194445</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>46056.45893518518</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>46056.46060185185</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41742,7 +41742,7 @@
         <v>46056.46152777778</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41799,7 +41799,7 @@
         <v>46056.550625</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>46014.34421296296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>46056.73582175926</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41980,7 +41980,7 @@
         <v>46056.41777777778</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42042,7 +42042,7 @@
         <v>46056.43649305555</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>46057.4415625</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42166,7 +42166,7 @@
         <v>46056.27177083334</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42228,7 +42228,7 @@
         <v>46056.35038194444</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42290,7 +42290,7 @@
         <v>46056.36716435185</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42347,7 +42347,7 @@
         <v>46056.60728009259</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42409,7 +42409,7 @@
         <v>46056.36381944444</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>46052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>46052</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>46056.46603009259</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>46056.57664351852</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>46056.71449074074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42761,7 +42761,7 @@
         <v>46056.43462962963</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>46055</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>46056.8631712963</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>45511.46820601852</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43004,7 +43004,7 @@
         <v>44820</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>46056.55571759259</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>46056.46402777778</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>45152.45767361111</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>46057.52116898148</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>46056.45658564815</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>46056.46262731482</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>46056.58530092592</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>46009.59115740741</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>46057.72354166667</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43594,7 +43594,7 @@
         <v>44643.41052083333</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         <v>46056.86855324074</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43713,7 +43713,7 @@
         <v>46057.47216435185</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43775,7 +43775,7 @@
         <v>44893.61184027778</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43832,7 +43832,7 @@
         <v>46014.34641203703</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43889,7 +43889,7 @@
         <v>46052</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43946,7 +43946,7 @@
         <v>45107.38415509259</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44008,7 +44008,7 @@
         <v>46049</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44070,7 +44070,7 @@
         <v>46052</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>46058.58692129629</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44194,7 +44194,7 @@
         <v>46045</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
         <v>45243.71267361111</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44313,7 +44313,7 @@
         <v>46050</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44375,7 +44375,7 @@
         <v>46058.33729166666</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44437,7 +44437,7 @@
         <v>45365.36416666667</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44499,7 +44499,7 @@
         <v>46058.68724537037</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45994.33106481482</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         <v>46049</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>46049</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>46058.35648148148</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>45671.3278587963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45994.3346875</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44918,7 +44918,7 @@
         <v>46051</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44980,7 +44980,7 @@
         <v>46051</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>46051</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>46043</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>46052.54240740741</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>46058.3744212963</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>46058.59788194444</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>46058.59868055556</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>46043</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>46043</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>46043</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>46043</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>46058.32934027778</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>45210</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45776,7 +45776,7 @@
         <v>46059.64305555556</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>46049</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>46049</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>46043</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>46043</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46081,7 +46081,7 @@
         <v>46058.63775462963</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>46058.56357638889</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>46058.56946759259</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>46058.57689814815</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
         <v>46058.59034722222</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         <v>46049</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46448,7 +46448,7 @@
         <v>46059.40299768518</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46510,7 +46510,7 @@
         <v>46058.34144675926</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>46049</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46634,7 +46634,7 @@
         <v>46024</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46691,7 +46691,7 @@
         <v>45593.66212962963</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>44915.66561342592</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46805,7 +46805,7 @@
         <v>45441</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>45678.59506944445</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46924,7 +46924,7 @@
         <v>45156</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46986,7 +46986,7 @@
         <v>45674.64806712963</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47043,7 +47043,7 @@
         <v>45429.58289351852</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>45757.60380787037</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47167,7 +47167,7 @@
         <v>45527.46929398148</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47229,7 +47229,7 @@
         <v>44781.62321759259</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47286,7 +47286,7 @@
         <v>45261</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47343,7 +47343,7 @@
         <v>45054.36821759259</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47405,7 +47405,7 @@
         <v>45712.39575231481</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47462,7 +47462,7 @@
         <v>45701</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47519,7 +47519,7 @@
         <v>45754.54491898148</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47576,7 +47576,7 @@
         <v>45620.6840162037</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45758.46114583333</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47690,7 +47690,7 @@
         <v>45534.64778935185</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>45334.4608912037</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>45609</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47866,7 +47866,7 @@
         <v>45022.66271990741</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>45139.6669212963</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47980,7 +47980,7 @@
         <v>45237</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48037,7 +48037,7 @@
         <v>45698.46994212963</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48094,7 +48094,7 @@
         <v>45727.61972222223</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48151,7 +48151,7 @@
         <v>45603.33167824074</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>44987.31462962963</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
         <v>45111.52043981481</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48322,7 +48322,7 @@
         <v>45497.36582175926</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48379,7 +48379,7 @@
         <v>45448</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48441,7 +48441,7 @@
         <v>44838</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48498,7 +48498,7 @@
         <v>45156</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48560,7 +48560,7 @@
         <v>45134</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45134.05142361111</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48684,7 +48684,7 @@
         <v>45596.4116087963</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48741,7 +48741,7 @@
         <v>45583.34546296296</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48798,7 +48798,7 @@
         <v>45240.43925925926</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48860,7 +48860,7 @@
         <v>45609.31627314815</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48922,7 +48922,7 @@
         <v>45139.67980324074</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         <v>45446.55873842593</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49036,7 +49036,7 @@
         <v>45621.48976851852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49098,7 +49098,7 @@
         <v>45544.3700462963</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49155,7 +49155,7 @@
         <v>45481.43787037037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49212,7 +49212,7 @@
         <v>45623.58407407408</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49274,7 +49274,7 @@
         <v>44915</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49331,7 +49331,7 @@
         <v>44725</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49388,7 +49388,7 @@
         <v>45281.50811342592</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49445,7 +49445,7 @@
         <v>44950</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49502,7 +49502,7 @@
         <v>45068.53083333333</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49564,7 +49564,7 @@
         <v>45771.42100694445</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49626,7 +49626,7 @@
         <v>45068.47928240741</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45534.60523148148</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45230.35541666667</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49807,7 +49807,7 @@
         <v>45156</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         <v>45070.61877314815</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49926,7 +49926,7 @@
         <v>45628.36787037037</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49983,7 +49983,7 @@
         <v>45771.4179050926</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50045,7 +50045,7 @@
         <v>45715.44862268519</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50107,7 +50107,7 @@
         <v>45484</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50164,7 +50164,7 @@
         <v>45280.53886574074</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50221,7 +50221,7 @@
         <v>45239</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50278,7 +50278,7 @@
         <v>44953</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50340,7 +50340,7 @@
         <v>45296</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50397,7 +50397,7 @@
         <v>44448.65805555556</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50454,7 +50454,7 @@
         <v>45600.48512731482</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50511,7 +50511,7 @@
         <v>45744.62528935185</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50573,7 +50573,7 @@
         <v>45072</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50630,7 +50630,7 @@
         <v>45448</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50692,7 +50692,7 @@
         <v>45666.7081712963</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50749,7 +50749,7 @@
         <v>45265.79518518518</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50806,7 +50806,7 @@
         <v>45134.82828703704</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50868,7 +50868,7 @@
         <v>45713.42717592593</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44950.64807870371</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45481.43993055556</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45776</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45776.59355324074</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45455.39258101852</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45784.42454861111</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45519.47035879629</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45608.66064814815</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45544.3709837963</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45785.48791666667</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45258</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45786.50641203704</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51619,7 +51619,7 @@
         <v>45786.50910879629</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>45478</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51743,7 +51743,7 @@
         <v>45617.35549768519</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51805,7 +51805,7 @@
         <v>44746.58283564815</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51862,7 +51862,7 @@
         <v>45453.36412037037</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51919,7 +51919,7 @@
         <v>45786.48606481482</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51981,7 +51981,7 @@
         <v>45791.61199074074</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52043,7 +52043,7 @@
         <v>45776.45578703703</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52105,7 +52105,7 @@
         <v>45790.60747685185</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52162,7 +52162,7 @@
         <v>45621.34652777778</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         <v>45792.55434027778</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52281,7 +52281,7 @@
         <v>45468.38417824074</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52338,7 +52338,7 @@
         <v>45593.66165509259</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52395,7 +52395,7 @@
         <v>44267.69099537037</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52457,7 +52457,7 @@
         <v>45754.56815972222</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52514,7 +52514,7 @@
         <v>44659</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52571,7 +52571,7 @@
         <v>45282</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52628,7 +52628,7 @@
         <v>45434.65519675926</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -575,7 +575,7 @@
         <v>45545</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>46043</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45106.64317129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>46056.37918981481</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45812.38626157407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45859.35157407408</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>46030.36605324074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>45841.38859953704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45882.3721875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114.44133101852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45022</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45715.47814814815</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45742.53870370371</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44496.58844907407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45247.56151620371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45469.53998842592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>45840.45563657407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45680.61361111111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>46044.40725694445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>46042</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>46044.68267361111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>46048.4083912037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>46009.51313657407</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>46027</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>46057.37287037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>46056.48991898148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44795.59144675926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44858.42059027778</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44327.39894675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44327.39097222222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44460</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>44417.70143518518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44795.58167824074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44400.56368055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44340.65736111111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>44479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>44460</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>44529.48662037037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44532.6444212963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44400.53994212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44817</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44795.58773148148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>44663.42211805555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44308</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44858.59162037037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44256</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44492</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44383</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44400.55195601852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>44400.50061342592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44711.63396990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44795.57931712963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>44858.42241898148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44425</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44343</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44327.39258101852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44327.396875</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44802.41177083334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44881.63907407408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>44705.48972222222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>44872.49866898148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44334.68707175926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44361.58487268518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44371.49859953704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44313</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44532.35103009259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>44643.42163194445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>44663.44337962963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44250</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>44355.33836805556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>44409.33064814815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>44384.58857638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>44460</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>44460.42206018518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>44327.40118055556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>44348.44310185185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>44358</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>44889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>45534.45524305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45156</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>45488.44724537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45615.39707175926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45611.59930555556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>45180.46878472222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>44804.53847222222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45617.82288194444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44890.52128472222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>45280.52896990741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>45548.50462962963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45205.40086805556</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44879</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>45547</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>45211</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>45167.61197916666</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>45252.81868055555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>45111.53038194445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>45617.34234953704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>45645.39519675926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45341.46197916667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>45715.42207175926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44950</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45772.41228009259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>45254.51929398148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>45887.35770833334</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45754.54916666666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45596.34179398148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45747.58980324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>45434</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>45803.60325231482</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>44797.3377662037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45800.48542824074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45800.43626157408</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45800.65675925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>45803.45716435185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>45803.36275462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45803.38435185186</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45799.55334490741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45800.49399305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45800.49638888889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45887.35001157408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>45800.45778935185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45800.48849537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>45716.62736111111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45800.49899305555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>45618.51423611111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45054.4237037037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>45054.44943287037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>45884.5896875</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>45805.49575231481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>45611.59655092593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45625.65038194445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>45132.37506944445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>45726.56340277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>45889.55805555556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>45810.64354166666</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>45443.47413194444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>45888.42207175926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>45888.59596064815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>45889.48412037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>45889.55767361111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>45889.47886574074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45889.48163194444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45891.33346064815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45323.56510416666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>45744.56231481482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>45841.38190972222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44950.56905092593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>45817.58722222222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>45817.59430555555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45817.70028935185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45833.38398148148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45754.57960648148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45894.58084490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45715</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>45817.59944444444</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45896.50693287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45896.37104166667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>45835.62361111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>45819.66730324074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45898.35738425926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>45107.63166666667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>45819.5671412037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45880.38586805556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45432.6987037037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45799.56206018518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>45789.41380787037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45742.51152777778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44279.54775462963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>45621.4991087963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>45903.39806712963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>45821.34212962963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>45903.43053240741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>45821.32741898148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>45903.39152777778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45903.39596064815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>45903.64918981482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>45656.49635416667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>45903.44436342592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>45821.65914351852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>45443.3383912037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>45820.38311342592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>45646.41528935185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>45754.58219907407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>45905.4327662037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>45169.45846064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>45905.35064814815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45835.45553240741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45821.58765046296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45824.41335648148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45821.59091435185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>45898</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>45908.3884375</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45909.59766203703</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>45642.33047453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>44887</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>45911.4297337963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45777.38662037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45911.46778935185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45911.41474537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45827.34570601852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>45827.45775462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>45911.55394675926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45911.55607638889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45911.56153935185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>45911.41440972222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>45827.50730324074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>45827.3822337963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45911.45193287037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45757.61045138889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45827.3172337963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45917.33304398148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>45826.33542824074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>45337</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>45917.581875</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>45056.63667824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>45917.34569444445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>45048.62515046296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>45488.45084490741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>45581</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45041.56773148148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45919.92555555556</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>45833.47171296296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>45510</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>45833.37363425926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>45922.59997685185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>45111.39857638889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45925.4483912037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45925.44523148148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45833.58438657408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45929.34912037037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45644.48552083333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45848.65737268519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>45602.34721064815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45846.35457175926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44350.46327546296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45926.47118055556</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44239</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44239</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45027</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>45602</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>45602.34263888889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>45469.50715277778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>45223.58224537037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>45608.50689814815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45848.64854166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>45162</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44239</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44522.40350694444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>45846.3380787037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44267</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>45554.66199074074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>45848.65394675926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>45216.30402777778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45777.56392361111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>45554.6590162037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45762.31237268518</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>45926.41898148148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>45582.57228009259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44309.36331018519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44383.30501157408</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44816.58288194444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45590.36142361111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>45929.57289351852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>45929.57436342593</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>44501.49077546296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45526.66439814815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45617.52900462963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44525.3771412037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>45582.57607638889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45107.48458333333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>45930.45800925926</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>45835</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>45932.62010416666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>45839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45933.46466435185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45838.38739583334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45933.35277777778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>45932.62314814814</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>45840.64146990741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>45707.35554398148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>45184</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45840.46055555555</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45840.49201388889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45840.4965162037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45937.62039351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45937.610625</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>45939.37001157407</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>45937.60611111111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>45938.49456018519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45490</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>45840.46547453704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>45841.40467592593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>45840.63861111111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45139.65960648148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>45937.58770833333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>45937.43577546296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>45705</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>45109.84071759259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>45642.59554398148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>45937.6262037037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>45638</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>45181</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>45608.61949074074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45608.62261574074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>44700.6490162037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45719.64081018518</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45073</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45109.83574074074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45834</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>45842.39043981482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45204</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>45945.89071759259</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>45334</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>45849.59908564815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>45849.59491898148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>45947.48436342592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>45851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>45645.33822916666</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>45478</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>45441.70758101852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45254</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45254</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>45715.4665625</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45859.4297337963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45859.376875</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45756.43231481482</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45450.46739583334</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45366.33762731482</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45862.30469907408</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>45953.51040509259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>45952.42239583333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>45953.46417824074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>45488.46547453704</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44712.42891203704</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>45946.38253472222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45301</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45870</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45957.54447916667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>45954.7355787037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>45954.43909722222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>45237.47232638889</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>45957.40206018519</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>45958.38793981481</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>45958.39484953704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>45747.33708333333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>45755.4960300926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>45488.47298611111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45959.55204861111</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45719.37508101852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>45342.40693287037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>45551.58315972222</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>45966.38342592592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>45966.60378472223</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45883.49462962963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45967.33152777778</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45967.33255787037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>45967.4474537037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>45646.33236111111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>45883.62131944444</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44964</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>45754.34134259259</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>45754.36008101852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>45679.57982638889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>45330.44824074074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45972.53399305556</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>45973.51217592593</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45973.33715277778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>45973.35025462963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>45972.34230324074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>45586.54471064815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45973.36832175926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45973.4175462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45973.42826388889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45972.33707175926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45972.6244212963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>45973.39857638889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>45973.4030787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45975.35673611111</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45106.63590277778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45820.57949074074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45812.46144675926</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>45978.53877314815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>45978.56181712963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>45978.59431712963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>45978.59633101852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45884.59181712963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45978.49068287037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45978.55541666667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>45978.53752314814</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>45978.44311342593</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45674.64923611111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45981.34307870371</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45258.52659722222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>46027.59798611111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>45596.92895833333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>45985.45576388889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44342</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>45291.52712962963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>45558.50545138889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>45985.45773148148</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>45630.35421296296</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         <v>46027.51408564814</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45624.92115740741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45982.66631944444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45625.33287037037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>46027.63125</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>46027.59274305555</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>46027.61621527778</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>46027.61108796296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>45986.68657407408</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>46029.38326388889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>46029.38788194444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>46029.38126157408</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>46029.38519675926</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>45986.61143518519</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>46029.6222337963</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>45551.59668981482</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>45986.61519675926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>46029.40497685185</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45986.67872685185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45986.62328703704</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         <v>45733.57708333333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>46031.54403935185</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27260,7 +27260,7 @@
         <v>46031.59362268518</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>45608.46461805556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44391</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>45988.4421412037</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>46031.50452546297</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>46031.51228009259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>44862.33306712963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>46031.50038194445</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>46031.50792824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         <v>46031.49777777777</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>46033.53333333333</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>46034.3709837963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>46034.63491898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28011,7 +28011,7 @@
         <v>46035.450625</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
         <v>45649.34438657408</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         <v>46034.62466435185</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28182,7 +28182,7 @@
         <v>46019</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>46034.61875</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>46034.62362268518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>46034.48016203703</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45608.58549768518</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>46035.48829861111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>46034.59131944444</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>46035.44954861111</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>46035.65653935185</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>46035.65622685185</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>46036.47611111111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>46036.48780092593</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>44377</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45758.40640046296</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>46036.44969907407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29052,7 +29052,7 @@
         <v>46036.67746527777</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29109,7 +29109,7 @@
         <v>45994.32405092593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>45995.64913194445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29228,7 +29228,7 @@
         <v>45600.48857638889</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29285,7 +29285,7 @@
         <v>46036.45693287037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29342,7 +29342,7 @@
         <v>46036.60131944445</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>46036.60565972222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29456,7 +29456,7 @@
         <v>46036.67384259259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>46036.59059027778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29570,7 +29570,7 @@
         <v>46036.37615740741</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29627,7 +29627,7 @@
         <v>46036.6075</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29684,7 +29684,7 @@
         <v>46036.67594907407</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>46036.49285879629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>46037.54952546296</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29855,7 +29855,7 @@
         <v>45995.60189814815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>46036.48025462963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>45994.47068287037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30036,7 +30036,7 @@
         <v>46037.54207175926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30093,7 +30093,7 @@
         <v>46036.46466435185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30150,7 +30150,7 @@
         <v>46037.46747685185</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>46036.63581018519</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>46037.470625</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>46037.49280092592</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>46021</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>46038.57928240741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>45455.3833912037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>45469.3924537037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>46041.50413194444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>46038.66013888889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>46038.625625</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>46041.40201388889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>46038.44782407407</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>46038.57648148148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>46038.58046296296</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>46041.57511574074</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>46038.33611111111</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>46021</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>45996.37003472223</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31258,7 +31258,7 @@
         <v>46041.6021875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31315,7 +31315,7 @@
         <v>44883.78270833333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31377,7 +31377,7 @@
         <v>46038.48903935185</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31434,7 +31434,7 @@
         <v>46043.37112268519</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31491,7 +31491,7 @@
         <v>46043.40673611111</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31548,7 +31548,7 @@
         <v>46042.53480324074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>46043.49481481482</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>46043.37221064815</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>46043.40189814815</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>46000.53678240741</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>46042.64138888889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>45554.57899305555</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>46027.39123842592</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>46043.46627314815</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>46043.49569444444</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>46042.55055555556</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>46042.35134259259</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>46038</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>46042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>46044.40581018518</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>46003.36434027777</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>46044.3909375</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>46036</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32614,7 +32614,7 @@
         <v>46036</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45620.68857638889</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>46045.32743055555</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>46045.33702546296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>46021</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>45203.60052083333</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>46021</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>46021</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>46027.50319444444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>46028.86578703704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>46029.34457175926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33256,7 +33256,7 @@
         <v>46044.40465277778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33313,7 +33313,7 @@
         <v>46045.45112268518</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33370,7 +33370,7 @@
         <v>46044.68452546297</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>46044.68048611111</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33484,7 +33484,7 @@
         <v>46038</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>46027.49688657407</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>46028.80164351852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>46028.81819444444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>46044.45016203704</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>46028.85481481482</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>46044.39172453704</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>46036</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>46044.68167824074</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>46044.89736111111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>46045.32310185185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34126,7 +34126,7 @@
         <v>46045.34884259259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>46038</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>46023.67790509259</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>46023.68649305555</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>46048.3558912037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34426,7 +34426,7 @@
         <v>46049.84189814814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34483,7 +34483,7 @@
         <v>46049.84784722222</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34540,7 +34540,7 @@
         <v>46048.4766087963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34597,7 +34597,7 @@
         <v>46049.84559027778</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34654,7 +34654,7 @@
         <v>46049.81511574074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34711,7 +34711,7 @@
         <v>46049.81664351852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34768,7 +34768,7 @@
         <v>46049.59923611111</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
         <v>45574.35596064815</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>46048.40377314815</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34944,7 +34944,7 @@
         <v>45069</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35001,7 +35001,7 @@
         <v>46048.6440162037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35058,7 +35058,7 @@
         <v>46048.68467592593</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35115,7 +35115,7 @@
         <v>46049.84465277778</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35172,7 +35172,7 @@
         <v>46047.62123842593</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35229,7 +35229,7 @@
         <v>46047.74475694444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>46048.35344907407</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>46048.57344907407</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45398.67929398148</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35467,7 +35467,7 @@
         <v>46048.64078703704</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35524,7 +35524,7 @@
         <v>46049.76145833333</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>46048.39998842592</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35648,7 +35648,7 @@
         <v>46006.55280092593</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35705,7 +35705,7 @@
         <v>45134</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35767,7 +35767,7 @@
         <v>45134</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         <v>46049.83738425926</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35891,7 +35891,7 @@
         <v>46048.3146875</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35953,7 +35953,7 @@
         <v>46047.30560185185</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36010,7 +36010,7 @@
         <v>46048.67299768519</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36067,7 +36067,7 @@
         <v>46048.42685185185</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>46007.43958333333</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>45989.45607638889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36248,7 +36248,7 @@
         <v>46046.81304398148</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>45646.4966087963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>46049.73991898148</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>46048.86174768519</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36481,7 +36481,7 @@
         <v>46049.62439814815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36538,7 +36538,7 @@
         <v>46048.42388888889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>46048.51607638889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>46048.39863425926</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36724,7 +36724,7 @@
         <v>46051.78497685185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36781,7 +36781,7 @@
         <v>46043</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>44839</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36905,7 +36905,7 @@
         <v>46050.37032407407</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36967,7 +36967,7 @@
         <v>46009.65140046296</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37029,7 +37029,7 @@
         <v>46050.36653935185</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37091,7 +37091,7 @@
         <v>46050.42256944445</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>46034.64438657407</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>46043</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>46044</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>46009.36662037037</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>46050.65528935185</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37453,7 +37453,7 @@
         <v>46050.39554398148</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>46050.40049768519</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>46051.79657407408</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37634,7 +37634,7 @@
         <v>46050.45982638889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>46050.64810185185</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37758,7 +37758,7 @@
         <v>46050.36358796297</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37820,7 +37820,7 @@
         <v>46050.38971064815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>46050.39192129629</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37944,7 +37944,7 @@
         <v>46050.46310185185</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>46050.66814814815</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>45706.64928240741</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44496.48552083333</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38187,7 +38187,7 @@
         <v>46051.46790509259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38244,7 +38244,7 @@
         <v>46051.47976851852</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38301,7 +38301,7 @@
         <v>46050.66034722222</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>46051.59861111111</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>46051.40638888889</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>46050.37806712963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         <v>46042</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38601,7 +38601,7 @@
         <v>46008.7390625</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38658,7 +38658,7 @@
         <v>46052.50318287037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38715,7 +38715,7 @@
         <v>46052.54532407408</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38777,7 +38777,7 @@
         <v>46052.54809027778</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38839,7 +38839,7 @@
         <v>46052.55412037037</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38901,7 +38901,7 @@
         <v>44460.39326388889</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38958,7 +38958,7 @@
         <v>46052.60164351852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>46052.41415509259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39077,7 +39077,7 @@
         <v>46052.53769675926</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39139,7 +39139,7 @@
         <v>46055.59766203703</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39196,7 +39196,7 @@
         <v>46055.60109953704</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39253,7 +39253,7 @@
         <v>46055.4175925926</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39310,7 +39310,7 @@
         <v>46055.49107638889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39372,7 +39372,7 @@
         <v>45621.57118055555</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39434,7 +39434,7 @@
         <v>46055.62168981481</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>46053.52635416666</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>46053.53597222222</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
         <v>46024</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45699.43766203704</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>45742.53079861111</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>46055.69435185185</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>46052.49719907407</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>46052.52888888889</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>46021</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>46055.63435185186</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>46052.55074074074</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>46055.61903935186</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>46055.62414351852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>46052.34869212963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40324,7 +40324,7 @@
         <v>44406.33724537037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40381,7 +40381,7 @@
         <v>45184</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40443,7 +40443,7 @@
         <v>46052.70923611111</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40505,7 +40505,7 @@
         <v>44805</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40562,7 +40562,7 @@
         <v>46055.48247685185</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>46013.42375</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40686,7 +40686,7 @@
         <v>46013.42856481481</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>46042</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40810,7 +40810,7 @@
         <v>46052.42894675926</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40867,7 +40867,7 @@
         <v>46053.54109953704</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40924,7 +40924,7 @@
         <v>46055.64167824074</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>46021</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>46010.49428240741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>46052.49001157407</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>46057.72561342592</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>46057.82925925926</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>46056.45778935185</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>46057.53673611111</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>46056.65497685185</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>46056.63907407408</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>46056.45328703704</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>46056.45413194445</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>46056.45893518518</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>46056.46060185185</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41742,7 +41742,7 @@
         <v>46056.46152777778</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41799,7 +41799,7 @@
         <v>46056.550625</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>46014.34421296296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>46056.73582175926</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41980,7 +41980,7 @@
         <v>46056.41777777778</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42042,7 +42042,7 @@
         <v>46056.43649305555</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>46057.4415625</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42166,7 +42166,7 @@
         <v>46056.27177083334</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42228,7 +42228,7 @@
         <v>46056.35038194444</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42290,7 +42290,7 @@
         <v>46056.36716435185</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42347,7 +42347,7 @@
         <v>46056.60728009259</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42409,7 +42409,7 @@
         <v>46056.36381944444</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>46052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>46052</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>46056.46603009259</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>46056.57664351852</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>46056.71449074074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42761,7 +42761,7 @@
         <v>46056.43462962963</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42823,7 +42823,7 @@
         <v>46055</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>46056.8631712963</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>45511.46820601852</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43004,7 +43004,7 @@
         <v>44820</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>46056.55571759259</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>46056.46402777778</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>45152.45767361111</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>46057.52116898148</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>46056.45658564815</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>46056.46262731482</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>46056.58530092592</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>46009.59115740741</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>46057.72354166667</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43594,7 +43594,7 @@
         <v>44643.41052083333</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         <v>46056.86855324074</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43713,7 +43713,7 @@
         <v>46057.47216435185</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43775,7 +43775,7 @@
         <v>44893.61184027778</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43832,7 +43832,7 @@
         <v>46014.34641203703</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43889,7 +43889,7 @@
         <v>46052</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43946,7 +43946,7 @@
         <v>45107.38415509259</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44008,7 +44008,7 @@
         <v>46049</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44070,7 +44070,7 @@
         <v>46052</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>46058.58692129629</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44194,7 +44194,7 @@
         <v>46045</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
         <v>45243.71267361111</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44313,7 +44313,7 @@
         <v>46050</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44375,7 +44375,7 @@
         <v>46058.33729166666</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44437,7 +44437,7 @@
         <v>45365.36416666667</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44499,7 +44499,7 @@
         <v>46058.68724537037</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>45994.33106481482</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         <v>46049</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>46049</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>46058.35648148148</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>45671.3278587963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45994.3346875</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44918,7 +44918,7 @@
         <v>46051</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44980,7 +44980,7 @@
         <v>46051</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>46051</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>46043</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>46052.54240740741</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>46058.3744212963</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>46058.59788194444</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>46058.59868055556</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>46043</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>46043</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>46043</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>46043</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>46058.32934027778</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>45210</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45776,7 +45776,7 @@
         <v>46059.64305555556</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>46049</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>46049</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>46043</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>46043</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46081,7 +46081,7 @@
         <v>46058.63775462963</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>46058.56357638889</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>46058.56946759259</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46262,7 +46262,7 @@
         <v>46058.57689814815</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
         <v>46058.59034722222</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         <v>46049</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46448,7 +46448,7 @@
         <v>46059.40299768518</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46510,7 +46510,7 @@
         <v>46058.34144675926</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>46049</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46634,7 +46634,7 @@
         <v>46024</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46691,7 +46691,7 @@
         <v>45593.66212962963</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>44915.66561342592</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46805,7 +46805,7 @@
         <v>45441</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>45678.59506944445</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46924,7 +46924,7 @@
         <v>45156</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46986,7 +46986,7 @@
         <v>45674.64806712963</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47043,7 +47043,7 @@
         <v>45429.58289351852</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>45757.60380787037</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47167,7 +47167,7 @@
         <v>45527.46929398148</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47229,7 +47229,7 @@
         <v>44781.62321759259</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47286,7 +47286,7 @@
         <v>45261</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47343,7 +47343,7 @@
         <v>45054.36821759259</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47405,7 +47405,7 @@
         <v>45712.39575231481</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47462,7 +47462,7 @@
         <v>45701</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47519,7 +47519,7 @@
         <v>45754.54491898148</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47576,7 +47576,7 @@
         <v>45620.6840162037</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45758.46114583333</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47690,7 +47690,7 @@
         <v>45534.64778935185</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>45334.4608912037</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>45609</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47866,7 +47866,7 @@
         <v>45022.66271990741</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>45139.6669212963</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47980,7 +47980,7 @@
         <v>45237</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48037,7 +48037,7 @@
         <v>45698.46994212963</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48094,7 +48094,7 @@
         <v>45727.61972222223</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48151,7 +48151,7 @@
         <v>45603.33167824074</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>44987.31462962963</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
         <v>45111.52043981481</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48322,7 +48322,7 @@
         <v>45497.36582175926</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48379,7 +48379,7 @@
         <v>45448</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48441,7 +48441,7 @@
         <v>44838</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48498,7 +48498,7 @@
         <v>45156</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48560,7 +48560,7 @@
         <v>45134</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45134.05142361111</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48684,7 +48684,7 @@
         <v>45596.4116087963</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48741,7 +48741,7 @@
         <v>45583.34546296296</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48798,7 +48798,7 @@
         <v>45240.43925925926</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48860,7 +48860,7 @@
         <v>45609.31627314815</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48922,7 +48922,7 @@
         <v>45139.67980324074</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         <v>45446.55873842593</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49036,7 +49036,7 @@
         <v>45621.48976851852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49098,7 +49098,7 @@
         <v>45544.3700462963</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49155,7 +49155,7 @@
         <v>45481.43787037037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49212,7 +49212,7 @@
         <v>45623.58407407408</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49274,7 +49274,7 @@
         <v>44915</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49331,7 +49331,7 @@
         <v>44725</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49388,7 +49388,7 @@
         <v>45281.50811342592</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49445,7 +49445,7 @@
         <v>44950</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49502,7 +49502,7 @@
         <v>45068.53083333333</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49564,7 +49564,7 @@
         <v>45771.42100694445</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49626,7 +49626,7 @@
         <v>45068.47928240741</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45534.60523148148</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45230.35541666667</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49807,7 +49807,7 @@
         <v>45156</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         <v>45070.61877314815</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49926,7 +49926,7 @@
         <v>45628.36787037037</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49983,7 +49983,7 @@
         <v>45771.4179050926</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50045,7 +50045,7 @@
         <v>45715.44862268519</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50107,7 +50107,7 @@
         <v>45484</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50164,7 +50164,7 @@
         <v>45280.53886574074</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50221,7 +50221,7 @@
         <v>45239</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50278,7 +50278,7 @@
         <v>44953</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50340,7 +50340,7 @@
         <v>45296</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50397,7 +50397,7 @@
         <v>44448.65805555556</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50454,7 +50454,7 @@
         <v>45600.48512731482</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50511,7 +50511,7 @@
         <v>45744.62528935185</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50573,7 +50573,7 @@
         <v>45072</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50630,7 +50630,7 @@
         <v>45448</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50692,7 +50692,7 @@
         <v>45666.7081712963</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50749,7 +50749,7 @@
         <v>45265.79518518518</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50806,7 +50806,7 @@
         <v>45134.82828703704</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50868,7 +50868,7 @@
         <v>45713.42717592593</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>44950.64807870371</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45481.43993055556</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45776</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45776.59355324074</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45455.39258101852</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45784.42454861111</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45519.47035879629</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45608.66064814815</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45544.3709837963</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45785.48791666667</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45258</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45786.50641203704</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51619,7 +51619,7 @@
         <v>45786.50910879629</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51681,7 +51681,7 @@
         <v>45478</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51743,7 +51743,7 @@
         <v>45617.35549768519</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51805,7 +51805,7 @@
         <v>44746.58283564815</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51862,7 +51862,7 @@
         <v>45453.36412037037</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51919,7 +51919,7 @@
         <v>45786.48606481482</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51981,7 +51981,7 @@
         <v>45791.61199074074</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52043,7 +52043,7 @@
         <v>45776.45578703703</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52105,7 +52105,7 @@
         <v>45790.60747685185</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52162,7 +52162,7 @@
         <v>45621.34652777778</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         <v>45792.55434027778</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52281,7 +52281,7 @@
         <v>45468.38417824074</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52338,7 +52338,7 @@
         <v>45593.66165509259</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52395,7 +52395,7 @@
         <v>44267.69099537037</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52457,7 +52457,7 @@
         <v>45754.56815972222</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52514,7 +52514,7 @@
         <v>44659</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52571,7 +52571,7 @@
         <v>45282</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52628,7 +52628,7 @@
         <v>45434.65519675926</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -575,7 +575,7 @@
         <v>45545</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>46043</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45106.64317129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>46056</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45859.35157407408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>46030.36605324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45812.38626157407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>45841.38859953704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45882.3721875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46065.72737268519</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45114.44133101852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45022</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45715.47814814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45742.53870370371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>45840.45563657407</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44496.58844907407</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>45247.56151620371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>45469.53998842592</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45680.61361111111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>46044.40725694445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>46042</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>46044.68267361111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>46048.4083912037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>46009.51313657407</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>46057.37287037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>46056.48991898148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>46065.48417824074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>46065.41638888889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>46027</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>46070.36331018519</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>46070.35776620371</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>46070.34200231481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>46070.42059027778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>46070.64349537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>46073.38932870371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>46073.39332175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44371</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44795.59144675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44858.42059027778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44327.39894675926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44327.39097222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44795.58167824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44417.70143518518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44400.56368055556</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44340.65736111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>44460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44529.48662037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44532.6444212963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44400.53994212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44817</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>44795.58773148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>44418</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>44334</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44460</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44663.42211805555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44308</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44858.59162037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44256</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44492</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44400.55195601852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44400.50061342592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>44711.63396990741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>44440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44795.57931712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>44858.42241898148</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44327.39258101852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44327.396875</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44802.41177083334</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44881.63907407408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44705.48972222222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44872.49866898148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44334.68707175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44371.49859953704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44361.58487268518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44313</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44532.35103009259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44643.42163194445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>44663.44337962963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44250</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44355.33836805556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44409.33064814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44460</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44384.58857638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44460.42206018518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>44460</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44327.40118055556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44348.44310185185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>44358</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45534.45524305556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>45180.46878472222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>45156</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>45488.44724537037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>45615.39707175926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44804.53847222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>45611.59930555556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>45617.82288194444</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>44890.52128472222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45280.52896990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>45205.40086805556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>45548.50462962963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44879</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45547</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>45211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>45252.81868055555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>45167.61197916666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>45111.53038194445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>45617.34234953704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>45341.46197916667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>45254.51929398148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>45715.42207175926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44950</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>45772.41228009259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>45754.54916666666</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45645.39519675926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44797.3377662037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45716.62736111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45618.51423611111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>45054.4237037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>45054.44943287037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44986</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45611.59655092593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45625.65038194445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45132.37506944445</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45726.56340277778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>45443.47413194444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>45323.56510416666</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>45817.59944444444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44950.56905092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>45887.35770833334</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>45819.66730324074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>45799.55334490741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45819.5671412037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45887.35001157408</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>45884.5896875</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>45821.34212962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>45821.32741898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>45107.63166666667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>45821.65914351852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45432.6987037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45820.38311342592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45621.4991087963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>45821.58765046296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45656.49635416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45824.41335648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45821.59091435185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>45889.55805555556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>45443.3383912037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>45888.42207175926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>45888.59596064815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45889.48412037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45889.55767361111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45889.47886574074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>45889.48163194444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>45827.34570601852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>45891.33346064815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45827.45775462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>45646.41528935185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45827.50730324074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45744.56231481482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>45827.3822337963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>45169.45846064815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45841.38190972222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>45827.3172337963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45826.33542824074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>45833.38398148148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>45754.57960648148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45894.58084490741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>45715</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45642.33047453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44887</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45896.50693287037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>45833.47171296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45833.37363425926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>45757.61045138889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>45896.37104166667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>45835.62361111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>45833.58438657408</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>45898.35738425926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>45880.38586805556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>45799.56206018518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>45337</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>45789.41380787037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45056.63667824074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45742.51152777778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44279.54775462963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45903.39806712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45903.43053240741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>45903.39152777778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>45903.39596064815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45903.64918981482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>45048.62515046296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45903.44436342592</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>45488.45084490741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45835</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>45839</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>45581</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45041.56773148148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>45839</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45754.58219907407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45905.4327662037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>45838.38739583334</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45905.35064814815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45510</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45835.45553240741</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45111.39857638889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45840.64146990741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>45840.46055555555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45840.49201388889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>45898</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>45840.4965162037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>45908.3884375</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45840.46547453704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45909.59766203703</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45841.40467592593</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45840.63861111111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45911.4297337963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45777.38662037037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>45109.84071759259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45911.46778935185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45911.41474537037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45911.55394675926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45911.55607638889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45911.56153935185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45911.41440972222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45719.64081018518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45073</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45911.45193287037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>45109.83574074074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>45223.58224537037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>45842.39043981482</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>45917.33304398148</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>45849.59908564815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45849.59491898148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45917.581875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>45851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45917.34569444445</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45859.4297337963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45859.376875</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45919.92555555556</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45707.35554398148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45756.43231481482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45184</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>45922.59997685185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>45862.30469907408</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45490</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45925.4483912037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45925.44523148148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>45139.65960648148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45929.34912037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45705</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>45644.48552083333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45848.65737268519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>45602.34721064815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>45846.35457175926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44350.46327546296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45926.47118055556</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45027</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45602</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>45602.34263888889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>45642.59554398148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>45469.50715277778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45638</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45870</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45608.50689814815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45848.64854166667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45162</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44522.40350694444</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45846.3380787037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44267</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45554.66199074074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>45848.65394675926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>45216.30402777778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>45181</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>45777.56392361111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>45554.6590162037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>45762.31237268518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>45926.41898148148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45582.57228009259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44309.36331018519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44383.30501157408</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44816.58288194444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>45590.36142361111</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45929.57289351852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45929.57436342593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>44501.49077546296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>45526.66439814815</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45617.52900462963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>45608.61949074074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45608.62261574074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44845</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44700.6490162037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44525.3771412037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>45582.57607638889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>45107.48458333333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45930.45800925926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45932.62010416666</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45204</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45933.46466435185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45933.35277777778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45932.62314814814</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45334</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>45719.37508101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45645.33822916666</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>45478</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45441.70758101852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45551.58315972222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45254</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>45254</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>45883.49462962963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45715.4665625</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45937.62039351852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20743,7 +20743,7 @@
         <v>45937.610625</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>45883.62131944444</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>45939.37001157407</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>45937.60611111111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>45938.49456018519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>45450.46739583334</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>45366.33762731482</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45586.54471064815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45937.58770833333</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45937.43577546296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45937.6262037037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45488.46547453704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>44712.42891203704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45301</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>45237.47232638889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>45820.57949074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45834</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45812.46144675926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45747.33708333333</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45755.4960300926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45884.59181712963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45488.47298611111</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45945.89071759259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45947.48436342592</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45700</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45953.51040509259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45342.40693287037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45952.42239583333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45953.46417824074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45946.38253472222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44970</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45957.54447916667</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45646.33236111111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45954.7355787037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>45954.43909722222</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44964</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>45957.40206018519</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45958.38793981481</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>45754.34134259259</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>45754.36008101852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45679.57982638889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45958.39484953704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>45330.44824074074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>45959.55204861111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45106.63590277778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>45966.38342592592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>45966.60378472223</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>45674.64923611111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>45967.33152777778</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45967.33255787037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>45967.4474537037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>45258.52659722222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>45596.92895833333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>44342</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23886,7 +23886,7 @@
         <v>45972.53399305556</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>45291.52712962963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>45558.50545138889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45973.51217592593</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>45973.33715277778</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>45973.35025462963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>45972.34230324074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>45630.35421296296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>45624.92115740741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45625.33287037037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45973.36832175926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45973.4175462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45973.42826388889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45972.33707175926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45972.6244212963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>45973.39857638889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45973.4030787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45975.35673611111</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45978.53877314815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45551.59668981482</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45978.56181712963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45978.59431712963</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45978.59633101852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>45978.49068287037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>45978.55541666667</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45733.57708333333</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>45978.53752314814</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45978.44311342593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45981.34307870371</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>45608.46461805556</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44391</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44862.33306712963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45985.45576388889</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>45985.45773148148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45982.66631944444</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>45649.34438657408</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>45986.68657407408</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>45986.61143518519</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45608.58549768518</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>45986.61519675926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>45986.67872685185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>45986.62328703704</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44377</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>45758.40640046296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>45988.4421412037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>46031.51228009259</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>45600.48857638889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>46031.50038194445</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>46031.50792824074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>46031.49777777777</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>46033.53333333333</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>46034.3709837963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>46034.63491898148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>46035.450625</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>46034.61875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>46034.62362268518</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>46034.48016203703</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>46035.48829861111</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>46035.44954861111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>46035.65653935185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>46035.65622685185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>46036.47611111111</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>46036.48780092593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>46036.44969907407</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45455.3833912037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>46036.67746527777</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45994.32405092593</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45995.64913194445</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>46036.45693287037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>46036.60131944445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>46036.60565972222</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>46036.67384259259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>46036.59059027778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>46036.37615740741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>45469.3924537037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         <v>46036.6075</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         <v>46036.67594907407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>46036.49285879629</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28407,7 +28407,7 @@
         <v>46037.54952546296</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>45995.60189814815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28526,7 +28526,7 @@
         <v>46036.48025462963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>45994.47068287037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>46037.54207175926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>46036.46466435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>46037.46747685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>46036.63581018519</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>46037.470625</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>46037.49280092592</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>46038.57928240741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44883.78270833333</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>46041.50413194444</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>46038.66013888889</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>46038.625625</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>46041.40201388889</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>46038.44782407407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>46038.57648148148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>46038.58046296296</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>46041.57511574074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>46038.33611111111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45996.37003472223</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>46038.48903935185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>46043.37112268519</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29815,7 +29815,7 @@
         <v>45554.57899305555</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>46043.40673611111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>46042.53480324074</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>46043.49481481482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>46043.37221064815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>46043.40189814815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>46000.53678240741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>45620.68857638889</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45203.60052083333</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>46042.64138888889</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>46043.46627314815</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>46043.49569444444</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>46042.55055555556</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>46042.35134259259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>46038</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>46044.40581018518</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>46003.36434027777</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>46044.3909375</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>46036</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>46036</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>46045.32743055555</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31057,7 +31057,7 @@
         <v>46045.33702546296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31114,7 +31114,7 @@
         <v>46044.40465277778</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>46045.45112268518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>45574.35596064815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>46044.68452546297</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31342,7 +31342,7 @@
         <v>45069</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31399,7 +31399,7 @@
         <v>46044.68048611111</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31456,7 +31456,7 @@
         <v>46038</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>46044.45016203704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45398.67929398148</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>46044.39172453704</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45134</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>45134</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31813,7 +31813,7 @@
         <v>46036</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31875,7 +31875,7 @@
         <v>46044.68167824074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31932,7 +31932,7 @@
         <v>46044.89736111111</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>46045.32310185185</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32051,7 +32051,7 @@
         <v>46045.34884259259</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>46038</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32175,7 +32175,7 @@
         <v>46048.3558912037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>45646.4966087963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         <v>46048.4766087963</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32351,7 +32351,7 @@
         <v>46049.59923611111</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32408,7 +32408,7 @@
         <v>46048.40377314815</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32470,7 +32470,7 @@
         <v>46048.6440162037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32527,7 +32527,7 @@
         <v>46048.68467592593</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32584,7 +32584,7 @@
         <v>46047.62123842593</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32641,7 +32641,7 @@
         <v>46047.74475694444</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
         <v>46048.35344907407</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>46048.57344907407</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32822,7 +32822,7 @@
         <v>44839</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>46048.64078703704</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>46049.76145833333</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33003,7 +33003,7 @@
         <v>46048.39998842592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>46006.55280092593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>46049.83738425926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>46048.3146875</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>46047.30560185185</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>46048.67299768519</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>46048.42685185185</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33422,7 +33422,7 @@
         <v>46007.43958333333</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33479,7 +33479,7 @@
         <v>45989.45607638889</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33541,7 +33541,7 @@
         <v>46046.81304398148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33598,7 +33598,7 @@
         <v>46049.73991898148</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>46048.86174768519</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>46049.62439814815</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>46048.42388888889</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>46048.51607638889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45706.64928240741</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>46048.39863425926</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44496.48552083333</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>46051.78497685185</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>46050.37032407407</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34198,7 +34198,7 @@
         <v>46009.65140046296</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>46050.36653935185</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>46050.42256944445</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44460.39326388889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>46034.64438657407</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>45621.57118055555</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>46009.36662037037</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34617,7 +34617,7 @@
         <v>46050.39554398148</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34679,7 +34679,7 @@
         <v>46050.40049768519</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>45699.43766203704</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45742.53079861111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34865,7 +34865,7 @@
         <v>46051.79657407408</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34922,7 +34922,7 @@
         <v>46050.45982638889</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>46050.36358796297</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>46050.38971064815</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>46050.46310185185</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>44406.33724537037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>46051.46790509259</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>46051.47976851852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
         <v>45184</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         <v>44805</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35460,7 +35460,7 @@
         <v>46051.59861111111</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35517,7 +35517,7 @@
         <v>46051.40638888889</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35574,7 +35574,7 @@
         <v>46050.37806712963</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35636,7 +35636,7 @@
         <v>46042</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35698,7 +35698,7 @@
         <v>46008.7390625</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35755,7 +35755,7 @@
         <v>46052.50318287037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
         <v>46052.41415509259</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35869,7 +35869,7 @@
         <v>46055.59766203703</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35926,7 +35926,7 @@
         <v>46055.60109953704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35983,7 +35983,7 @@
         <v>46055.4175925926</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36040,7 +36040,7 @@
         <v>46053.52635416666</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36097,7 +36097,7 @@
         <v>46053.53597222222</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36154,7 +36154,7 @@
         <v>46055.69435185185</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>46052.49719907407</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36268,7 +36268,7 @@
         <v>46052.52888888889</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36325,7 +36325,7 @@
         <v>46052.34869212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36382,7 +36382,7 @@
         <v>46013.42375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36444,7 +36444,7 @@
         <v>46013.42856481481</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36506,7 +36506,7 @@
         <v>46052.42894675926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36563,7 +36563,7 @@
         <v>46053.54109953704</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36620,7 +36620,7 @@
         <v>45511.46820601852</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36677,7 +36677,7 @@
         <v>44820</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>46010.49428240741</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>46052.49001157407</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36853,7 +36853,7 @@
         <v>45152.45767361111</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
         <v>44643.41052083333</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36967,7 +36967,7 @@
         <v>44893.61184027778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
         <v>46057.72561342592</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37086,7 +37086,7 @@
         <v>46057.82925925926</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37148,7 +37148,7 @@
         <v>46056.45778935185</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37205,7 +37205,7 @@
         <v>45107.38415509259</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>46056.65497685185</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>46056.63907407408</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>46056.45328703704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>46056.45413194445</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>46056.45893518518</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>46056.46060185185</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>46056.46152777778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>45243.71267361111</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>46014.34421296296</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>45365.36416666667</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>46056.60728009259</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>46056.36381944444</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>46052</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>46052</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>46056.46603009259</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>46056.57664351852</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>46056.8631712963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45671.3278587963</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>46056.55571759259</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>46056.46402777778</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>46057.52116898148</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>46056.45658564815</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>46056.46262731482</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>46056.58530092592</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>46009.59115740741</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>46057.72354166667</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45210</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>46014.34641203703</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>46052</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>46058.58692129629</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39022,7 +39022,7 @@
         <v>46045</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>46058.68724537037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45994.33106481482</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>45994.3346875</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>46058.59788194444</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39317,7 +39317,7 @@
         <v>46058.59868055556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>46043</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39441,7 +39441,7 @@
         <v>46043</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>46059.64305555556</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>46043</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39622,7 +39622,7 @@
         <v>46058.63775462963</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39679,7 +39679,7 @@
         <v>46058.56357638889</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39741,7 +39741,7 @@
         <v>46058.56946759259</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39803,7 +39803,7 @@
         <v>46058.57689814815</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39865,7 +39865,7 @@
         <v>46058.59034722222</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39927,7 +39927,7 @@
         <v>46059.40299768518</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>46042</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         <v>46049</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>46034.59131944444</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>46043</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40232,7 +40232,7 @@
         <v>46055</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40294,7 +40294,7 @@
         <v>46055</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>46021</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>46063.27335648148</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40475,7 +40475,7 @@
         <v>46063.35768518518</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40532,7 +40532,7 @@
         <v>46062.42148148148</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40594,7 +40594,7 @@
         <v>46063.42120370371</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40651,7 +40651,7 @@
         <v>45593.66212962963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40708,7 +40708,7 @@
         <v>46021</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40765,7 +40765,7 @@
         <v>46021</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40822,7 +40822,7 @@
         <v>46063.42803240741</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40884,7 +40884,7 @@
         <v>46050</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>46051</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>46062.43238425926</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41070,7 +41070,7 @@
         <v>46062.44077546296</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41127,7 +41127,7 @@
         <v>46050</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41189,7 +41189,7 @@
         <v>44915.66561342592</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41246,7 +41246,7 @@
         <v>46052</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>46055</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41370,7 +41370,7 @@
         <v>46055</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41432,7 +41432,7 @@
         <v>46050</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41494,7 +41494,7 @@
         <v>46052</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>46052</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41618,7 +41618,7 @@
         <v>46021</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41675,7 +41675,7 @@
         <v>46021</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41732,7 +41732,7 @@
         <v>46062.37336805555</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41789,7 +41789,7 @@
         <v>45441</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>46062.56677083333</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>46049</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41970,7 +41970,7 @@
         <v>46049</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>46021</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42089,7 +42089,7 @@
         <v>46050</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42151,7 +42151,7 @@
         <v>46051</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42213,7 +42213,7 @@
         <v>46034.62466435185</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42270,7 +42270,7 @@
         <v>46043</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>46052</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42394,7 +42394,7 @@
         <v>46049</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42456,7 +42456,7 @@
         <v>45678.59506944445</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42513,7 +42513,7 @@
         <v>46062.56228009259</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42570,7 +42570,7 @@
         <v>46021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42627,7 +42627,7 @@
         <v>46051</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42689,7 +42689,7 @@
         <v>46043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42751,7 +42751,7 @@
         <v>46049</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>46019</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>46064.63734953704</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>46064.63939814815</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>46064.64278935185</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>46064.36305555556</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>45156</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>46064.3554050926</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43222,7 +43222,7 @@
         <v>46065.53934027778</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43284,7 +43284,7 @@
         <v>46058</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         <v>46065.71517361111</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43408,7 +43408,7 @@
         <v>46065.32443287037</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>46064.63451388889</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45674.64806712963</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>46043</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>46056</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43708,7 +43708,7 @@
         <v>46052</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43770,7 +43770,7 @@
         <v>46056</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43832,7 +43832,7 @@
         <v>46056</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43894,7 +43894,7 @@
         <v>46065.47537037037</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43956,7 +43956,7 @@
         <v>46065.48666666666</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>46064.64170138889</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>46064.64571759259</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44137,7 +44137,7 @@
         <v>46064.48517361111</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44194,7 +44194,7 @@
         <v>46064.64413194444</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44251,7 +44251,7 @@
         <v>46065.37780092593</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44313,7 +44313,7 @@
         <v>46065.3837037037</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>46065.43962962963</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>46050</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>46064.50446759259</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>46064.55339120371</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         <v>46065.32719907408</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>46056</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>46065.61966435185</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>46065.35657407407</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45429.58289351852</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>46065.39756944445</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>46043</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>46023.67790509259</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45757.60380787037</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>46056</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>46056</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>46064.645625</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>46065.31940972222</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>46065.33519675926</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>46065.37322916667</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>46065.39300925926</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>46065.73239583334</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>46052</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>46052</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>46052</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>46064.47422453704</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45900,7 +45900,7 @@
         <v>46064.51773148148</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>46056</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46024,7 +46024,7 @@
         <v>46052</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46086,7 +46086,7 @@
         <v>46065.45392361111</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46148,7 +46148,7 @@
         <v>46050</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46210,7 +46210,7 @@
         <v>46065.60079861111</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46272,7 +46272,7 @@
         <v>46065.61357638889</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46334,7 +46334,7 @@
         <v>46056</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>46058</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>46041.6021875</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>46066.40208333333</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46577,7 +46577,7 @@
         <v>46065</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>46057</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>46027.61108796296</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>46066.75789351852</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46820,7 +46820,7 @@
         <v>46027.63125</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>46027.61621527778</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46934,7 +46934,7 @@
         <v>46066.39734953704</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46991,7 +46991,7 @@
         <v>46066.48236111111</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47053,7 +47053,7 @@
         <v>46066.42578703703</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47110,7 +47110,7 @@
         <v>46027.39123842592</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47167,7 +47167,7 @@
         <v>46055</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47229,7 +47229,7 @@
         <v>45527.46929398148</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>46066.54386574074</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>46069.46402777778</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>46066.49946759259</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>46027.59798611111</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>46023.68649305555</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         <v>46069.35165509259</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>46069.43528935185</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47705,7 +47705,7 @@
         <v>46058</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47767,7 +47767,7 @@
         <v>46064</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47824,7 +47824,7 @@
         <v>46043</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47886,7 +47886,7 @@
         <v>46057</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>46058</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>46069.44584490741</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48072,7 +48072,7 @@
         <v>46069.47755787037</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48129,7 +48129,7 @@
         <v>46066.72869212963</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48191,7 +48191,7 @@
         <v>46066.76207175926</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48253,7 +48253,7 @@
         <v>46057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48315,7 +48315,7 @@
         <v>46024</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48372,7 +48372,7 @@
         <v>46027.49688657407</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48429,7 +48429,7 @@
         <v>46027.50319444444</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48491,7 +48491,7 @@
         <v>46027.51408564814</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48548,7 +48548,7 @@
         <v>46066.49512731482</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48610,7 +48610,7 @@
         <v>46069.41222222222</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48672,7 +48672,7 @@
         <v>46069.42313657407</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48734,7 +48734,7 @@
         <v>46027.59274305555</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48791,7 +48791,7 @@
         <v>46071.49969907408</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48853,7 +48853,7 @@
         <v>46071.51452546296</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48915,7 +48915,7 @@
         <v>46071.57961805556</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48972,7 +48972,7 @@
         <v>46071.64425925926</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49029,7 +49029,7 @@
         <v>46071.39347222223</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>46071.42561342593</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49148,7 +49148,7 @@
         <v>46049</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44781.62321759259</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>46071.64606481481</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>46029.38519675926</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49381,7 +49381,7 @@
         <v>46071.49243055555</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>46071.51644675926</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49505,7 +49505,7 @@
         <v>46071.42413194444</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49567,7 +49567,7 @@
         <v>46071.4294212963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49629,7 +49629,7 @@
         <v>46070.37762731482</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49691,7 +49691,7 @@
         <v>46071.41292824074</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49753,7 +49753,7 @@
         <v>46070.36159722223</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49810,7 +49810,7 @@
         <v>45261</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49867,7 +49867,7 @@
         <v>46028.81819444444</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49924,7 +49924,7 @@
         <v>46070.61300925926</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49981,7 +49981,7 @@
         <v>46071.57877314815</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50038,7 +50038,7 @@
         <v>46028.80164351852</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50095,7 +50095,7 @@
         <v>46028.85481481482</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>46028.86578703704</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50209,7 +50209,7 @@
         <v>46055</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>46070.36003472222</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50333,7 +50333,7 @@
         <v>46070.40189814815</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50395,7 +50395,7 @@
         <v>46029.6222337963</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50452,7 +50452,7 @@
         <v>45054.36821759259</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50514,7 +50514,7 @@
         <v>46029.40497685185</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>46024</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>46071.64109953704</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>46071.64506944444</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50742,7 +50742,7 @@
         <v>46071.50152777778</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>46029.34457175926</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>46071.39571759259</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>46029.38788194444</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50980,7 +50980,7 @@
         <v>46029.38126157408</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51037,7 +51037,7 @@
         <v>46070.45606481482</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>46058</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>46071.62350694444</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>46071.64030092592</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>46070.67081018518</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51332,7 +51332,7 @@
         <v>46029.38326388889</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>46072.38490740741</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>46031.59362268518</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>46049</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51560,7 +51560,7 @@
         <v>46072.47118055556</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>46072.47872685185</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>46056</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>46055</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51808,7 +51808,7 @@
         <v>46055</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51870,7 +51870,7 @@
         <v>46063</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51927,7 +51927,7 @@
         <v>46073.56005787037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51984,7 +51984,7 @@
         <v>46042</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>46049</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52103,7 +52103,7 @@
         <v>46031.50452546297</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52160,7 +52160,7 @@
         <v>46049</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52217,7 +52217,7 @@
         <v>46049</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52274,7 +52274,7 @@
         <v>46063</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>46056</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45712.39575231481</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>46049</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>46049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>46049</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52621,7 +52621,7 @@
         <v>46073.45125</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>46073.55927083334</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52745,7 +52745,7 @@
         <v>46073.56230324074</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>46073.41756944444</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52864,7 +52864,7 @@
         <v>46073.39684027778</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52926,7 +52926,7 @@
         <v>46044</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52988,7 +52988,7 @@
         <v>46073.55576388889</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53050,7 +53050,7 @@
         <v>46073.55927083334</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53107,7 +53107,7 @@
         <v>45701</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>46072.38101851852</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53221,7 +53221,7 @@
         <v>46073.66045138889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>46031.54403935185</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53340,7 +53340,7 @@
         <v>46063</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53397,7 +53397,7 @@
         <v>45754.54491898148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53454,7 +53454,7 @@
         <v>45620.6840162037</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53511,7 +53511,7 @@
         <v>45758.46114583333</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53568,7 +53568,7 @@
         <v>45534.64778935185</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53625,7 +53625,7 @@
         <v>45334.4608912037</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53682,7 +53682,7 @@
         <v>45609</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53744,7 +53744,7 @@
         <v>45022.66271990741</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53801,7 +53801,7 @@
         <v>45139.6669212963</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53858,7 +53858,7 @@
         <v>45237</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53915,7 +53915,7 @@
         <v>45698.46994212963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53972,7 +53972,7 @@
         <v>45727.61972222223</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54029,7 +54029,7 @@
         <v>45603.33167824074</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54086,7 +54086,7 @@
         <v>44987.31462962963</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54143,7 +54143,7 @@
         <v>45111.52043981481</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54200,7 +54200,7 @@
         <v>45497.36582175926</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54257,7 +54257,7 @@
         <v>45448</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54319,7 +54319,7 @@
         <v>44838</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54376,7 +54376,7 @@
         <v>45156</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54438,7 +54438,7 @@
         <v>45134</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54500,7 +54500,7 @@
         <v>45134.05142361111</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>45596.4116087963</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>45583.34546296296</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>45240.43925925926</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54738,7 +54738,7 @@
         <v>45609.31627314815</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54800,7 +54800,7 @@
         <v>45139.67980324074</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54857,7 +54857,7 @@
         <v>45446.55873842593</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54914,7 +54914,7 @@
         <v>45621.48976851852</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54976,7 +54976,7 @@
         <v>45544.3700462963</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55033,7 +55033,7 @@
         <v>45481.43787037037</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55090,7 +55090,7 @@
         <v>45623.58407407408</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55152,7 +55152,7 @@
         <v>44915</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55209,7 +55209,7 @@
         <v>44725</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         <v>45281.50811342592</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55323,7 +55323,7 @@
         <v>44950</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55380,7 +55380,7 @@
         <v>45068.53083333333</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55442,7 +55442,7 @@
         <v>45771.42100694445</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55504,7 +55504,7 @@
         <v>45068.47928240741</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55566,7 +55566,7 @@
         <v>45534.60523148148</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55623,7 +55623,7 @@
         <v>45230.35541666667</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55685,7 +55685,7 @@
         <v>45156</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         <v>45070.61877314815</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55804,7 +55804,7 @@
         <v>45628.36787037037</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55861,7 +55861,7 @@
         <v>45771.4179050926</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55923,7 +55923,7 @@
         <v>45715.44862268519</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55985,7 +55985,7 @@
         <v>45484</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56042,7 +56042,7 @@
         <v>45280.53886574074</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56099,7 +56099,7 @@
         <v>45239</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56156,7 +56156,7 @@
         <v>44953</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56218,7 +56218,7 @@
         <v>45296</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56275,7 +56275,7 @@
         <v>44448.65805555556</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56332,7 +56332,7 @@
         <v>45600.48512731482</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56389,7 +56389,7 @@
         <v>45744.62528935185</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56451,7 +56451,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56508,7 +56508,7 @@
         <v>45448</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56570,7 +56570,7 @@
         <v>45666.7081712963</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56627,7 +56627,7 @@
         <v>45265.79518518518</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56684,7 +56684,7 @@
         <v>45134.82828703704</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56746,7 +56746,7 @@
         <v>45713.42717592593</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56808,7 +56808,7 @@
         <v>44950.64807870371</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56865,7 +56865,7 @@
         <v>45481.43993055556</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56922,7 +56922,7 @@
         <v>45776</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56979,7 +56979,7 @@
         <v>45776.59355324074</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57036,7 +57036,7 @@
         <v>45455.39258101852</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57093,7 +57093,7 @@
         <v>45784.42454861111</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57150,7 +57150,7 @@
         <v>45519.47035879629</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57207,7 +57207,7 @@
         <v>45608.66064814815</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57264,7 +57264,7 @@
         <v>45544.3709837963</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57321,7 +57321,7 @@
         <v>45785.48791666667</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57378,7 +57378,7 @@
         <v>45258</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57435,7 +57435,7 @@
         <v>45786.50641203704</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57497,7 +57497,7 @@
         <v>45786.50910879629</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57559,7 +57559,7 @@
         <v>45478</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57621,7 +57621,7 @@
         <v>45617.35549768519</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57683,7 +57683,7 @@
         <v>44746.58283564815</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57740,7 +57740,7 @@
         <v>45453.36412037037</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57797,7 +57797,7 @@
         <v>45786.48606481482</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57859,7 +57859,7 @@
         <v>45791.61199074074</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57921,7 +57921,7 @@
         <v>45776.45578703703</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57983,7 +57983,7 @@
         <v>45790.60747685185</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58040,7 +58040,7 @@
         <v>45621.34652777778</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58097,7 +58097,7 @@
         <v>45792.55434027778</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58159,7 +58159,7 @@
         <v>45468.38417824074</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58216,7 +58216,7 @@
         <v>45593.66165509259</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58273,7 +58273,7 @@
         <v>44267.69099537037</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58335,7 +58335,7 @@
         <v>45754.56815972222</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58392,7 +58392,7 @@
         <v>44659</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58449,7 +58449,7 @@
         <v>45282</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58506,7 +58506,7 @@
         <v>45434.65519675926</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58563,7 +58563,7 @@
         <v>45596.34179398148</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58620,7 +58620,7 @@
         <v>45747.58980324074</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58682,7 +58682,7 @@
         <v>45803.60325231482</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58739,7 +58739,7 @@
         <v>45800.48542824074</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45800.43626157408</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45800.65675925926</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58920,7 +58920,7 @@
         <v>45803.45716435185</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58982,7 +58982,7 @@
         <v>45803.36275462963</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59039,7 +59039,7 @@
         <v>45803.38435185186</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59101,7 +59101,7 @@
         <v>45800.49399305556</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59163,7 +59163,7 @@
         <v>45800.49638888889</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59225,7 +59225,7 @@
         <v>45800.45778935185</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59287,7 +59287,7 @@
         <v>45800.48849537037</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59349,7 +59349,7 @@
         <v>45800.49899305555</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59411,7 +59411,7 @@
         <v>45805.49575231481</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59468,7 +59468,7 @@
         <v>45810.64354166666</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59530,7 +59530,7 @@
         <v>45817.58722222222</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59592,7 +59592,7 @@
         <v>45817.59430555555</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59654,7 +59654,7 @@
         <v>45817.70028935185</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -575,7 +575,7 @@
         <v>45545</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>46043</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45106.64317129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>46056</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45859.35157407408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>46030.36605324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45812.38626157407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>45841.38859953704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45882.3721875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46065.72737268519</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45114.44133101852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45022</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45715.47814814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45742.53870370371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>45840.45563657407</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44496.58844907407</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>45247.56151620371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>45469.53998842592</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45680.61361111111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>46044.40725694445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>46042</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>46044.68267361111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>46048.4083912037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>46009.51313657407</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>46057.37287037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>46056.48991898148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>46065.48417824074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>46065.41638888889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>46027</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>46070.36331018519</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>46070.35776620371</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>46070.34200231481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>46070.42059027778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>46070.64349537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>46073.38932870371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>46073.39332175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44371</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44795.59144675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44858.42059027778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44327.39894675926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44327.39097222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44795.58167824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44417.70143518518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44400.56368055556</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44340.65736111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>44460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44529.48662037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44532.6444212963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44400.53994212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44817</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>44795.58773148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>44418</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>44334</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44460</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44663.42211805555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44308</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44858.59162037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44256</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44492</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>44400.55195601852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44383</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44400.50061342592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>44711.63396990741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>44440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44795.57931712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>44858.42241898148</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44343</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44327.39258101852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44327.396875</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44802.41177083334</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44881.63907407408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44705.48972222222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44872.49866898148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44334.68707175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44371.49859953704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44361.58487268518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44313</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44532.35103009259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44643.42163194445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>44663.44337962963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44250</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44355.33836805556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44409.33064814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44460</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44384.58857638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44460.42206018518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>44460</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44327.40118055556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44480</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44348.44310185185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>44358</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45534.45524305556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>45180.46878472222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>44889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>45156</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>45488.44724537037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>45615.39707175926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44804.53847222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>45611.59930555556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>45617.82288194444</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>44890.52128472222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45280.52896990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>45205.40086805556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>45548.50462962963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44879</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45547</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>45211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>45252.81868055555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>45167.61197916666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>45111.53038194445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>45617.34234953704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>45341.46197916667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>45254.51929398148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>45715.42207175926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44950</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>45772.41228009259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>45754.54916666666</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45645.39519675926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44797.3377662037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45716.62736111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45618.51423611111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>45054.4237037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>45054.44943287037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44986</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45611.59655092593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45625.65038194445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45132.37506944445</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45726.56340277778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>45443.47413194444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>45323.56510416666</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>45817.59944444444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44950.56905092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>45887.35770833334</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>45819.66730324074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>45799.55334490741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45819.5671412037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45887.35001157408</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>45884.5896875</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>45821.34212962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>45821.32741898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>45107.63166666667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>45821.65914351852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45432.6987037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45820.38311342592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45621.4991087963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>45821.58765046296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45656.49635416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45824.41335648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45821.59091435185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>45889.55805555556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>45443.3383912037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>45888.42207175926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>45888.59596064815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45889.48412037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45889.55767361111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45889.47886574074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>45889.48163194444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>45827.34570601852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>45891.33346064815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45827.45775462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>45646.41528935185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45827.50730324074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45744.56231481482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>45827.3822337963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>45169.45846064815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45841.38190972222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>45827.3172337963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45826.33542824074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>45833.38398148148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>45754.57960648148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45894.58084490741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>45715</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45642.33047453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44887</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45896.50693287037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>45833.47171296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45833.37363425926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>45757.61045138889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>45896.37104166667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>45835.62361111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>45833.58438657408</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>45898.35738425926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>45880.38586805556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>45799.56206018518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>45337</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>45789.41380787037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45056.63667824074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45742.51152777778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44279.54775462963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45903.39806712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45903.43053240741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>45903.39152777778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>45903.39596064815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45903.64918981482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>45048.62515046296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45903.44436342592</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>45488.45084490741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45835</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>45839</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>45581</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45041.56773148148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>45839</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45754.58219907407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45905.4327662037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>45838.38739583334</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45905.35064814815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45510</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45835.45553240741</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45111.39857638889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45840.64146990741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>45840.46055555555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45840.49201388889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>45898</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>45840.4965162037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>45908.3884375</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45840.46547453704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45909.59766203703</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45841.40467592593</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45840.63861111111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45911.4297337963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45777.38662037037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>45109.84071759259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45911.46778935185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45911.41474537037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45911.55394675926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45911.55607638889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45911.56153935185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45911.41440972222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45719.64081018518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45073</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45911.45193287037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>45109.83574074074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>45223.58224537037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>45842.39043981482</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>45917.33304398148</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>45849.59908564815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45849.59491898148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45917.581875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>45851</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45917.34569444445</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45859.4297337963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45859.376875</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45919.92555555556</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45707.35554398148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45756.43231481482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45184</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>45922.59997685185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>45862.30469907408</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45490</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45925.4483912037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45925.44523148148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>45139.65960648148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45929.34912037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45705</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>45644.48552083333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45848.65737268519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>45602.34721064815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>45846.35457175926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44350.46327546296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45926.47118055556</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45027</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45602</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>45602.34263888889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>45642.59554398148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>45469.50715277778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45638</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45870</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45608.50689814815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45848.64854166667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45162</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44522.40350694444</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45846.3380787037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44267</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45554.66199074074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>45848.65394675926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>45216.30402777778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>45181</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>45777.56392361111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>45554.6590162037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>45762.31237268518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>45926.41898148148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45582.57228009259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44309.36331018519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44383.30501157408</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44816.58288194444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>45590.36142361111</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45929.57289351852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45929.57436342593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>44501.49077546296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>45526.66439814815</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45617.52900462963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>45608.61949074074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45608.62261574074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44845</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44700.6490162037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44525.3771412037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>45582.57607638889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>45107.48458333333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45930.45800925926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45932.62010416666</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45204</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45933.46466435185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45933.35277777778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45932.62314814814</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45334</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>45719.37508101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45645.33822916666</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>45478</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45441.70758101852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45551.58315972222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45254</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>45254</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>45883.49462962963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45715.4665625</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45937.62039351852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20743,7 +20743,7 @@
         <v>45937.610625</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>45883.62131944444</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>45939.37001157407</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>45937.60611111111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>45938.49456018519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>45450.46739583334</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>45366.33762731482</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45586.54471064815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45937.58770833333</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45937.43577546296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45937.6262037037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45488.46547453704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>44712.42891203704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45301</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>45237.47232638889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>45820.57949074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45834</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45812.46144675926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45747.33708333333</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45755.4960300926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45884.59181712963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45488.47298611111</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45945.89071759259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45947.48436342592</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45700</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45953.51040509259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45342.40693287037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45952.42239583333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45953.46417824074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45946.38253472222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44970</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45957.54447916667</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45646.33236111111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45954.7355787037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>45954.43909722222</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44964</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>45957.40206018519</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45958.38793981481</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>45754.34134259259</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>45754.36008101852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45679.57982638889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45958.39484953704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>45330.44824074074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>45959.55204861111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45106.63590277778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>45966.38342592592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>45966.60378472223</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>45674.64923611111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>45967.33152777778</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45967.33255787037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>45967.4474537037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>45258.52659722222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>45596.92895833333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>44342</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23886,7 +23886,7 @@
         <v>45972.53399305556</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>45291.52712962963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>45558.50545138889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45973.51217592593</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>45973.33715277778</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>45973.35025462963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>45972.34230324074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>45630.35421296296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>45624.92115740741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45625.33287037037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45973.36832175926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45973.4175462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45973.42826388889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45972.33707175926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45972.6244212963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>45973.39857638889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45973.4030787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45975.35673611111</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45978.53877314815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45551.59668981482</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45978.56181712963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45978.59431712963</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45978.59633101852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>45978.49068287037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>45978.55541666667</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45733.57708333333</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>45978.53752314814</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45978.44311342593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45981.34307870371</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>45608.46461805556</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44391</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44862.33306712963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45985.45576388889</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>45985.45773148148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45982.66631944444</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>45649.34438657408</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>45986.68657407408</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>45986.61143518519</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45608.58549768518</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>45986.61519675926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>45986.67872685185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>45986.62328703704</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44377</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>45758.40640046296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>45988.4421412037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>46031.51228009259</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>45600.48857638889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>46031.50038194445</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>46031.50792824074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>46031.49777777777</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>46033.53333333333</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>46034.3709837963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>46034.63491898148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>46035.450625</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>46034.61875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>46034.62362268518</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>46034.48016203703</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>46035.48829861111</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>46035.44954861111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>46035.65653935185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>46035.65622685185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>46036.47611111111</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>46036.48780092593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>46036.44969907407</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45455.3833912037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>46036.67746527777</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45994.32405092593</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45995.64913194445</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>46036.45693287037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>46036.60131944445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>46036.60565972222</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>46036.67384259259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>46036.59059027778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>46036.37615740741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>45469.3924537037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         <v>46036.6075</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         <v>46036.67594907407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>46036.49285879629</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28407,7 +28407,7 @@
         <v>46037.54952546296</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>45995.60189814815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28526,7 +28526,7 @@
         <v>46036.48025462963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>45994.47068287037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>46037.54207175926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>46036.46466435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>46037.46747685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>46036.63581018519</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>46037.470625</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>46037.49280092592</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>46038.57928240741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44883.78270833333</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>46041.50413194444</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>46038.66013888889</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>46038.625625</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>46041.40201388889</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>46038.44782407407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>46038.57648148148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>46038.58046296296</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>46041.57511574074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>46038.33611111111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45996.37003472223</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29701,7 +29701,7 @@
         <v>46038.48903935185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>46043.37112268519</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29815,7 +29815,7 @@
         <v>45554.57899305555</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>46043.40673611111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>46042.53480324074</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>46043.49481481482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>46043.37221064815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>46043.40189814815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>46000.53678240741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>45620.68857638889</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45203.60052083333</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>46042.64138888889</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>46043.46627314815</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>46043.49569444444</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>46042.55055555556</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>46042.35134259259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>46038</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>46044.40581018518</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>46003.36434027777</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>46044.3909375</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>46036</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>46036</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>46045.32743055555</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31057,7 +31057,7 @@
         <v>46045.33702546296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31114,7 +31114,7 @@
         <v>46044.40465277778</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>46045.45112268518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>45574.35596064815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>46044.68452546297</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31342,7 +31342,7 @@
         <v>45069</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31399,7 +31399,7 @@
         <v>46044.68048611111</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31456,7 +31456,7 @@
         <v>46038</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>46044.45016203704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45398.67929398148</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>46044.39172453704</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45134</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>45134</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31813,7 +31813,7 @@
         <v>46036</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31875,7 +31875,7 @@
         <v>46044.68167824074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31932,7 +31932,7 @@
         <v>46044.89736111111</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>46045.32310185185</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32051,7 +32051,7 @@
         <v>46045.34884259259</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>46038</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32175,7 +32175,7 @@
         <v>46048.3558912037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>45646.4966087963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         <v>46048.4766087963</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32351,7 +32351,7 @@
         <v>46049.59923611111</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32408,7 +32408,7 @@
         <v>46048.40377314815</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32470,7 +32470,7 @@
         <v>46048.6440162037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32527,7 +32527,7 @@
         <v>46048.68467592593</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32584,7 +32584,7 @@
         <v>46047.62123842593</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32641,7 +32641,7 @@
         <v>46047.74475694444</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
         <v>46048.35344907407</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>46048.57344907407</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32822,7 +32822,7 @@
         <v>44839</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>46048.64078703704</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>46049.76145833333</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33003,7 +33003,7 @@
         <v>46048.39998842592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>46006.55280092593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>46049.83738425926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>46048.3146875</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>46047.30560185185</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>46048.67299768519</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>46048.42685185185</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33422,7 +33422,7 @@
         <v>46007.43958333333</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33479,7 +33479,7 @@
         <v>45989.45607638889</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33541,7 +33541,7 @@
         <v>46046.81304398148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33598,7 +33598,7 @@
         <v>46049.73991898148</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>46048.86174768519</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>46049.62439814815</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>46048.42388888889</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>46048.51607638889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45706.64928240741</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>46048.39863425926</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44496.48552083333</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>46051.78497685185</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>46050.37032407407</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34198,7 +34198,7 @@
         <v>46009.65140046296</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>46050.36653935185</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>46050.42256944445</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>44460.39326388889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34441,7 +34441,7 @@
         <v>46034.64438657407</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34498,7 +34498,7 @@
         <v>45621.57118055555</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34560,7 +34560,7 @@
         <v>46009.36662037037</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34617,7 +34617,7 @@
         <v>46050.39554398148</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34679,7 +34679,7 @@
         <v>46050.40049768519</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>45699.43766203704</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45742.53079861111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34865,7 +34865,7 @@
         <v>46051.79657407408</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34922,7 +34922,7 @@
         <v>46050.45982638889</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>46050.36358796297</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>46050.38971064815</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>46050.46310185185</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>44406.33724537037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>46051.46790509259</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>46051.47976851852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
         <v>45184</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         <v>44805</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35460,7 +35460,7 @@
         <v>46051.59861111111</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35517,7 +35517,7 @@
         <v>46051.40638888889</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35574,7 +35574,7 @@
         <v>46050.37806712963</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35636,7 +35636,7 @@
         <v>46042</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35698,7 +35698,7 @@
         <v>46008.7390625</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35755,7 +35755,7 @@
         <v>46052.50318287037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
         <v>46052.41415509259</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35869,7 +35869,7 @@
         <v>46055.59766203703</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35926,7 +35926,7 @@
         <v>46055.60109953704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35983,7 +35983,7 @@
         <v>46055.4175925926</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36040,7 +36040,7 @@
         <v>46053.52635416666</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36097,7 +36097,7 @@
         <v>46053.53597222222</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36154,7 +36154,7 @@
         <v>46055.69435185185</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>46052.49719907407</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36268,7 +36268,7 @@
         <v>46052.52888888889</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36325,7 +36325,7 @@
         <v>46052.34869212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36382,7 +36382,7 @@
         <v>46013.42375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36444,7 +36444,7 @@
         <v>46013.42856481481</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36506,7 +36506,7 @@
         <v>46052.42894675926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36563,7 +36563,7 @@
         <v>46053.54109953704</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36620,7 +36620,7 @@
         <v>45511.46820601852</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36677,7 +36677,7 @@
         <v>44820</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>46010.49428240741</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>46052.49001157407</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36853,7 +36853,7 @@
         <v>45152.45767361111</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
         <v>44643.41052083333</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36967,7 +36967,7 @@
         <v>44893.61184027778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
         <v>46057.72561342592</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37086,7 +37086,7 @@
         <v>46057.82925925926</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37148,7 +37148,7 @@
         <v>46056.45778935185</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37205,7 +37205,7 @@
         <v>45107.38415509259</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>46056.65497685185</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>46056.63907407408</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>46056.45328703704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>46056.45413194445</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>46056.45893518518</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>46056.46060185185</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>46056.46152777778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>45243.71267361111</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>46014.34421296296</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>45365.36416666667</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>46056.60728009259</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>46056.36381944444</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>46052</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>46052</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>46056.46603009259</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>46056.57664351852</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>46056.8631712963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45671.3278587963</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>46056.55571759259</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>46056.46402777778</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>46057.52116898148</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>46056.45658564815</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>46056.46262731482</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>46056.58530092592</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>46009.59115740741</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>46057.72354166667</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45210</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>46014.34641203703</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>46052</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>46058.58692129629</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39022,7 +39022,7 @@
         <v>46045</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>46058.68724537037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45994.33106481482</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>45994.3346875</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>46058.59788194444</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39317,7 +39317,7 @@
         <v>46058.59868055556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>46043</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39441,7 +39441,7 @@
         <v>46043</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>46059.64305555556</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>46043</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39622,7 +39622,7 @@
         <v>46058.63775462963</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39679,7 +39679,7 @@
         <v>46058.56357638889</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39741,7 +39741,7 @@
         <v>46058.56946759259</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39803,7 +39803,7 @@
         <v>46058.57689814815</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39865,7 +39865,7 @@
         <v>46058.59034722222</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39927,7 +39927,7 @@
         <v>46059.40299768518</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>46042</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         <v>46049</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>46034.59131944444</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>46043</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40232,7 +40232,7 @@
         <v>46055</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40294,7 +40294,7 @@
         <v>46055</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>46021</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>46063.27335648148</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40475,7 +40475,7 @@
         <v>46063.35768518518</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40532,7 +40532,7 @@
         <v>46062.42148148148</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40594,7 +40594,7 @@
         <v>46063.42120370371</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40651,7 +40651,7 @@
         <v>45593.66212962963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40708,7 +40708,7 @@
         <v>46021</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40765,7 +40765,7 @@
         <v>46021</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40822,7 +40822,7 @@
         <v>46063.42803240741</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40884,7 +40884,7 @@
         <v>46050</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>46051</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>46062.43238425926</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41070,7 +41070,7 @@
         <v>46062.44077546296</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41127,7 +41127,7 @@
         <v>46050</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41189,7 +41189,7 @@
         <v>44915.66561342592</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41246,7 +41246,7 @@
         <v>46052</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>46055</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41370,7 +41370,7 @@
         <v>46055</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41432,7 +41432,7 @@
         <v>46050</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41494,7 +41494,7 @@
         <v>46052</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>46052</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41618,7 +41618,7 @@
         <v>46021</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41675,7 +41675,7 @@
         <v>46021</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41732,7 +41732,7 @@
         <v>46062.37336805555</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41789,7 +41789,7 @@
         <v>45441</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>46062.56677083333</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>46049</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41970,7 +41970,7 @@
         <v>46049</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>46021</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42089,7 +42089,7 @@
         <v>46050</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42151,7 +42151,7 @@
         <v>46051</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42213,7 +42213,7 @@
         <v>46034.62466435185</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42270,7 +42270,7 @@
         <v>46043</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>46052</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42394,7 +42394,7 @@
         <v>46049</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42456,7 +42456,7 @@
         <v>45678.59506944445</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42513,7 +42513,7 @@
         <v>46062.56228009259</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42570,7 +42570,7 @@
         <v>46021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42627,7 +42627,7 @@
         <v>46051</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42689,7 +42689,7 @@
         <v>46043</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42751,7 +42751,7 @@
         <v>46049</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>46019</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>46064.63734953704</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>46064.63939814815</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>46064.64278935185</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>46064.36305555556</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>45156</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>46064.3554050926</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43222,7 +43222,7 @@
         <v>46065.53934027778</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43284,7 +43284,7 @@
         <v>46058</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         <v>46065.71517361111</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43408,7 +43408,7 @@
         <v>46065.32443287037</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>46064.63451388889</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45674.64806712963</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>46043</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>46056</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43708,7 +43708,7 @@
         <v>46052</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43770,7 +43770,7 @@
         <v>46056</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43832,7 +43832,7 @@
         <v>46056</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43894,7 +43894,7 @@
         <v>46065.47537037037</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43956,7 +43956,7 @@
         <v>46065.48666666666</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>46064.64170138889</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>46064.64571759259</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44137,7 +44137,7 @@
         <v>46064.48517361111</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44194,7 +44194,7 @@
         <v>46064.64413194444</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44251,7 +44251,7 @@
         <v>46065.37780092593</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44313,7 +44313,7 @@
         <v>46065.3837037037</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>46065.43962962963</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>46050</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>46064.50446759259</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
         <v>46064.55339120371</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         <v>46065.32719907408</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44675,7 +44675,7 @@
         <v>46056</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44737,7 +44737,7 @@
         <v>46065.61966435185</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>46065.35657407407</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45429.58289351852</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>46065.39756944445</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>46043</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>46023.67790509259</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45757.60380787037</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>46056</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>46056</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>46064.645625</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>46065.31940972222</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>46065.33519675926</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>46065.37322916667</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>46065.39300925926</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>46065.73239583334</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>46052</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>46052</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45781,7 +45781,7 @@
         <v>46052</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>46064.47422453704</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45900,7 +45900,7 @@
         <v>46064.51773148148</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45962,7 +45962,7 @@
         <v>46056</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46024,7 +46024,7 @@
         <v>46052</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46086,7 +46086,7 @@
         <v>46065.45392361111</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46148,7 +46148,7 @@
         <v>46050</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46210,7 +46210,7 @@
         <v>46065.60079861111</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46272,7 +46272,7 @@
         <v>46065.61357638889</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46334,7 +46334,7 @@
         <v>46056</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>46058</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>46041.6021875</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>46066.40208333333</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46577,7 +46577,7 @@
         <v>46065</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>46057</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>46027.61108796296</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>46066.75789351852</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46820,7 +46820,7 @@
         <v>46027.63125</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>46027.61621527778</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46934,7 +46934,7 @@
         <v>46066.39734953704</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46991,7 +46991,7 @@
         <v>46066.48236111111</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47053,7 +47053,7 @@
         <v>46066.42578703703</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47110,7 +47110,7 @@
         <v>46027.39123842592</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47167,7 +47167,7 @@
         <v>46055</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47229,7 +47229,7 @@
         <v>45527.46929398148</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>46066.54386574074</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>46069.46402777778</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>46066.49946759259</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>46027.59798611111</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>46023.68649305555</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         <v>46069.35165509259</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>46069.43528935185</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47705,7 +47705,7 @@
         <v>46058</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47767,7 +47767,7 @@
         <v>46064</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47824,7 +47824,7 @@
         <v>46043</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47886,7 +47886,7 @@
         <v>46057</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>46058</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>46069.44584490741</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48072,7 +48072,7 @@
         <v>46069.47755787037</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48129,7 +48129,7 @@
         <v>46066.72869212963</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48191,7 +48191,7 @@
         <v>46066.76207175926</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48253,7 +48253,7 @@
         <v>46057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48315,7 +48315,7 @@
         <v>46024</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48372,7 +48372,7 @@
         <v>46027.49688657407</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48429,7 +48429,7 @@
         <v>46027.50319444444</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48491,7 +48491,7 @@
         <v>46027.51408564814</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48548,7 +48548,7 @@
         <v>46066.49512731482</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48610,7 +48610,7 @@
         <v>46069.41222222222</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48672,7 +48672,7 @@
         <v>46069.42313657407</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48734,7 +48734,7 @@
         <v>46027.59274305555</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48791,7 +48791,7 @@
         <v>46071.49969907408</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48853,7 +48853,7 @@
         <v>46071.51452546296</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48915,7 +48915,7 @@
         <v>46071.57961805556</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48972,7 +48972,7 @@
         <v>46071.64425925926</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49029,7 +49029,7 @@
         <v>46071.39347222223</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>46071.42561342593</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49148,7 +49148,7 @@
         <v>46049</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49210,7 +49210,7 @@
         <v>44781.62321759259</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         <v>46071.64606481481</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49324,7 +49324,7 @@
         <v>46029.38519675926</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49381,7 +49381,7 @@
         <v>46071.49243055555</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>46071.51644675926</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49505,7 +49505,7 @@
         <v>46071.42413194444</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49567,7 +49567,7 @@
         <v>46071.4294212963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49629,7 +49629,7 @@
         <v>46070.37762731482</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49691,7 +49691,7 @@
         <v>46071.41292824074</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49753,7 +49753,7 @@
         <v>46070.36159722223</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49810,7 +49810,7 @@
         <v>45261</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49867,7 +49867,7 @@
         <v>46028.81819444444</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49924,7 +49924,7 @@
         <v>46070.61300925926</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49981,7 +49981,7 @@
         <v>46071.57877314815</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50038,7 +50038,7 @@
         <v>46028.80164351852</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50095,7 +50095,7 @@
         <v>46028.85481481482</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>46028.86578703704</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50209,7 +50209,7 @@
         <v>46055</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>46070.36003472222</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50333,7 +50333,7 @@
         <v>46070.40189814815</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50395,7 +50395,7 @@
         <v>46029.6222337963</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50452,7 +50452,7 @@
         <v>45054.36821759259</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50514,7 +50514,7 @@
         <v>46029.40497685185</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>46024</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>46071.64109953704</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>46071.64506944444</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50742,7 +50742,7 @@
         <v>46071.50152777778</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>46029.34457175926</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>46071.39571759259</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>46029.38788194444</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50980,7 +50980,7 @@
         <v>46029.38126157408</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51037,7 +51037,7 @@
         <v>46070.45606481482</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>46058</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>46071.62350694444</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>46071.64030092592</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51270,7 +51270,7 @@
         <v>46070.67081018518</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51332,7 +51332,7 @@
         <v>46029.38326388889</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51389,7 +51389,7 @@
         <v>46072.38490740741</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51446,7 +51446,7 @@
         <v>46031.59362268518</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51503,7 +51503,7 @@
         <v>46049</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51560,7 +51560,7 @@
         <v>46072.47118055556</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>46072.47872685185</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>46056</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>46055</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51808,7 +51808,7 @@
         <v>46055</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51870,7 +51870,7 @@
         <v>46063</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51927,7 +51927,7 @@
         <v>46073.56005787037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51984,7 +51984,7 @@
         <v>46042</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>46049</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52103,7 +52103,7 @@
         <v>46031.50452546297</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52160,7 +52160,7 @@
         <v>46049</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52217,7 +52217,7 @@
         <v>46049</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52274,7 +52274,7 @@
         <v>46063</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>46056</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45712.39575231481</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>46049</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>46049</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>46049</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52621,7 +52621,7 @@
         <v>46073.45125</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>46073.55927083334</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52745,7 +52745,7 @@
         <v>46073.56230324074</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>46073.41756944444</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52864,7 +52864,7 @@
         <v>46073.39684027778</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52926,7 +52926,7 @@
         <v>46044</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52988,7 +52988,7 @@
         <v>46073.55576388889</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53050,7 +53050,7 @@
         <v>46073.55927083334</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53107,7 +53107,7 @@
         <v>45701</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53164,7 +53164,7 @@
         <v>46072.38101851852</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53221,7 +53221,7 @@
         <v>46073.66045138889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         <v>46031.54403935185</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53340,7 +53340,7 @@
         <v>46063</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53397,7 +53397,7 @@
         <v>45754.54491898148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53454,7 +53454,7 @@
         <v>45620.6840162037</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53511,7 +53511,7 @@
         <v>45758.46114583333</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53568,7 +53568,7 @@
         <v>45534.64778935185</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53625,7 +53625,7 @@
         <v>45334.4608912037</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53682,7 +53682,7 @@
         <v>45609</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53744,7 +53744,7 @@
         <v>45022.66271990741</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53801,7 +53801,7 @@
         <v>45139.6669212963</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53858,7 +53858,7 @@
         <v>45237</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53915,7 +53915,7 @@
         <v>45698.46994212963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53972,7 +53972,7 @@
         <v>45727.61972222223</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54029,7 +54029,7 @@
         <v>45603.33167824074</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54086,7 +54086,7 @@
         <v>44987.31462962963</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54143,7 +54143,7 @@
         <v>45111.52043981481</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54200,7 +54200,7 @@
         <v>45497.36582175926</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54257,7 +54257,7 @@
         <v>45448</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54319,7 +54319,7 @@
         <v>44838</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54376,7 +54376,7 @@
         <v>45156</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54438,7 +54438,7 @@
         <v>45134</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54500,7 +54500,7 @@
         <v>45134.05142361111</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>45596.4116087963</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54619,7 +54619,7 @@
         <v>45583.34546296296</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54676,7 +54676,7 @@
         <v>45240.43925925926</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54738,7 +54738,7 @@
         <v>45609.31627314815</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54800,7 +54800,7 @@
         <v>45139.67980324074</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54857,7 +54857,7 @@
         <v>45446.55873842593</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54914,7 +54914,7 @@
         <v>45621.48976851852</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54976,7 +54976,7 @@
         <v>45544.3700462963</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55033,7 +55033,7 @@
         <v>45481.43787037037</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55090,7 +55090,7 @@
         <v>45623.58407407408</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55152,7 +55152,7 @@
         <v>44915</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55209,7 +55209,7 @@
         <v>44725</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         <v>45281.50811342592</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55323,7 +55323,7 @@
         <v>44950</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55380,7 +55380,7 @@
         <v>45068.53083333333</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55442,7 +55442,7 @@
         <v>45771.42100694445</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55504,7 +55504,7 @@
         <v>45068.47928240741</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55566,7 +55566,7 @@
         <v>45534.60523148148</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55623,7 +55623,7 @@
         <v>45230.35541666667</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55685,7 +55685,7 @@
         <v>45156</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         <v>45070.61877314815</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55804,7 +55804,7 @@
         <v>45628.36787037037</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55861,7 +55861,7 @@
         <v>45771.4179050926</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55923,7 +55923,7 @@
         <v>45715.44862268519</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55985,7 +55985,7 @@
         <v>45484</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56042,7 +56042,7 @@
         <v>45280.53886574074</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56099,7 +56099,7 @@
         <v>45239</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56156,7 +56156,7 @@
         <v>44953</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56218,7 +56218,7 @@
         <v>45296</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56275,7 +56275,7 @@
         <v>44448.65805555556</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56332,7 +56332,7 @@
         <v>45600.48512731482</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56389,7 +56389,7 @@
         <v>45744.62528935185</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56451,7 +56451,7 @@
         <v>45072</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56508,7 +56508,7 @@
         <v>45448</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56570,7 +56570,7 @@
         <v>45666.7081712963</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56627,7 +56627,7 @@
         <v>45265.79518518518</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56684,7 +56684,7 @@
         <v>45134.82828703704</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56746,7 +56746,7 @@
         <v>45713.42717592593</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56808,7 +56808,7 @@
         <v>44950.64807870371</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56865,7 +56865,7 @@
         <v>45481.43993055556</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56922,7 +56922,7 @@
         <v>45776</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56979,7 +56979,7 @@
         <v>45776.59355324074</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57036,7 +57036,7 @@
         <v>45455.39258101852</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57093,7 +57093,7 @@
         <v>45784.42454861111</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57150,7 +57150,7 @@
         <v>45519.47035879629</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57207,7 +57207,7 @@
         <v>45608.66064814815</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57264,7 +57264,7 @@
         <v>45544.3709837963</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57321,7 +57321,7 @@
         <v>45785.48791666667</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57378,7 +57378,7 @@
         <v>45258</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57435,7 +57435,7 @@
         <v>45786.50641203704</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57497,7 +57497,7 @@
         <v>45786.50910879629</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57559,7 +57559,7 @@
         <v>45478</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57621,7 +57621,7 @@
         <v>45617.35549768519</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57683,7 +57683,7 @@
         <v>44746.58283564815</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57740,7 +57740,7 @@
         <v>45453.36412037037</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57797,7 +57797,7 @@
         <v>45786.48606481482</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57859,7 +57859,7 @@
         <v>45791.61199074074</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57921,7 +57921,7 @@
         <v>45776.45578703703</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57983,7 +57983,7 @@
         <v>45790.60747685185</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58040,7 +58040,7 @@
         <v>45621.34652777778</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58097,7 +58097,7 @@
         <v>45792.55434027778</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58159,7 +58159,7 @@
         <v>45468.38417824074</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58216,7 +58216,7 @@
         <v>45593.66165509259</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58273,7 +58273,7 @@
         <v>44267.69099537037</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58335,7 +58335,7 @@
         <v>45754.56815972222</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58392,7 +58392,7 @@
         <v>44659</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58449,7 +58449,7 @@
         <v>45282</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58506,7 +58506,7 @@
         <v>45434.65519675926</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58563,7 +58563,7 @@
         <v>45596.34179398148</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58620,7 +58620,7 @@
         <v>45747.58980324074</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58682,7 +58682,7 @@
         <v>45803.60325231482</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58739,7 +58739,7 @@
         <v>45800.48542824074</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58801,7 +58801,7 @@
         <v>45800.43626157408</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58858,7 +58858,7 @@
         <v>45800.65675925926</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58920,7 +58920,7 @@
         <v>45803.45716435185</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58982,7 +58982,7 @@
         <v>45803.36275462963</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59039,7 +59039,7 @@
         <v>45803.38435185186</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59101,7 +59101,7 @@
         <v>45800.49399305556</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59163,7 +59163,7 @@
         <v>45800.49638888889</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59225,7 +59225,7 @@
         <v>45800.45778935185</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59287,7 +59287,7 @@
         <v>45800.48849537037</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59349,7 +59349,7 @@
         <v>45800.49899305555</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59411,7 +59411,7 @@
         <v>45805.49575231481</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59468,7 +59468,7 @@
         <v>45810.64354166666</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59530,7 +59530,7 @@
         <v>45817.58722222222</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59592,7 +59592,7 @@
         <v>45817.59430555555</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59654,7 +59654,7 @@
         <v>45817.70028935185</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -575,7 +575,7 @@
         <v>46077.52763888889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45545</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>46077.5739699074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>46043</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>46056</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45106.64317129629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45812.38626157407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45859.35157407408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>46030.36605324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45841.38859953704</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45882.3721875</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45114.44133101852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>46065</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>45742.53870370371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>45840.45563657407</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45247.56151620371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45469.53998842592</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44496.58844907407</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45022</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>46044.40725694445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46044.68267361111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>46042</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>46048.4083912037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>46009.51313657407</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>45715.47814814815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>46056.48991898148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>46057.37287037037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>46065.48417824074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>46070.42059027778</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>46027</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>46070.35776620371</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>46070.34200231481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>46070.36331018519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>46073.39332175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>46073.38932870371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>46077.44983796297</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>46077.51107638889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>46077.43590277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>46070</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>46065</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45680.61361111111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>44795.59144675926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>44858.42059027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44327.39894675926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44327.39097222222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44795.58167824074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44417.70143518518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44400.56368055556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44340.65736111111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44460</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44479</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44529.48662037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44532.6444212963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44400.53994212963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44795.58773148148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44509</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44460</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44663.42211805555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44858.59162037037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>44256</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>44492</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44383</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44400.55195601852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44400.50061342592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44711.63396990741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44440</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44795.57931712963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44858.42241898148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44343</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44327.39258101852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>44327.396875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>44802.41177083334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>44881.63907407408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>44705.48972222222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>44872.49866898148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44334.68707175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44361.58487268518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44371.49859953704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44313</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44532.35103009259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>44643.42163194445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>44663.44337962963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>44355.33836805556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44460</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>44409.33064814815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>44384.58857638889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>44460</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44460.42206018518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>44327.40118055556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44348.44310185185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44480</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45184</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45203.60052083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>45625.65038194445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>45334.4608912037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>45527.46929398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>45111.53038194445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>45330.44824074074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>45754.54491898148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44893.61184027778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>45365.36416666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44887</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44820</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>45441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45434</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>45450.46739583334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45679.57982638889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45443.3383912037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>45443.47413194444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>45446.55873842593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45716.62736111111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>45334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>45455.3833912037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>45366.33762731482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>45481.43787037037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45342.40693287037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>45534.60523148148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>45134</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>45490</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>45239</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44496.48552083333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>45478</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>45488.45084490741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>45184</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>44879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>45618.51423611111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>44889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>44391</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45429.58289351852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>45574.35596064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>45621.4991087963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>45883.49462962963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>45884.5896875</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>45280.52896990741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>45280.53886574074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>45805.49575231481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>45810.64354166666</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>45799.55334490741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45888.59596064815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>45608.58549768518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>45554.57899305555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>45887.35001157408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>45888.42207175926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>45812.46144675926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45820.57949074074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45887.35770833334</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45841.38190972222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44950.56905092593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>45817.59430555555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45889.47886574074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45889.48163194444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45817.58722222222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45889.55805555556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45744.56231481482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>45889.48412037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>45889.55767361111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>45817.59944444444</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45817.70028935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45497.36582175926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45819.5671412037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45819.66730324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>45820.38311342592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>45891.33346064815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>45821.58765046296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>45833.38398148148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45821.34212962963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45754.57960648148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45824.41335648148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45894.58084490741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45821.32741898148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45821.65914351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45715</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>45896.50693287037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>45821.59091435185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>45896.37104166667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>45210</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>45826.33542824074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>45835.62361111111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45827.50730324074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45898.35738425926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>45827.45775462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45827.3822337963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>45827.3172337963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>45827.34570601852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44950.64807870371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45880.38586805556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44279.54775462963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45742.51152777778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45799.56206018518</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45789.41380787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45903.39806712963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45903.39596064815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45903.39152777778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45903.44436342592</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45903.43053240741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>45903.64918981482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45398.67929398148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>45835.45553240741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45448</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45833.37363425926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45908.3884375</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>45833.58438657408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>45905.4327662037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45905.35064814815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>45833.47171296296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>45754.58219907407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>45838.38739583334</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45281.50811342592</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>45715.4665625</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>45840.63861111111</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>45840.46055555555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45840.64146990741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45839</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>45840.4965162037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>45839</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>45291.52712962963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>45835</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45840.49201388889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45898</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45840.46547453704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>45777.38662037037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>45621.57118055555</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>45841.40467592593</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45842.39043981482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>45638</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45909.59766203703</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>45911.41440972222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45911.46778935185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45109.84071759259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45106.63590277778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45911.4297337963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>45609</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45911.41474537037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45109.83574074074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45611.59930555556</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45674.64806712963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45911.45193287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>45719.64081018518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>45073</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>45911.55394675926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45911.55607638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>45911.56153935185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>45481.43993055556</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>45849.59491898148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>45849.59908564815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>45851</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45666.7081712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45510</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>45859.376875</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>45859.4297337963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>45756.43231481482</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45511.46820601852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45608.46461805556</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         <v>45917.33304398148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>45917.34569444445</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>45917.581875</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>45862.30469907408</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>45070.61877314815</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>45646.4966087963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45645.39519675926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45630.35421296296</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45919.92555555556</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>45922.59997685185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>45727.61972222223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>45925.4483912037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>45617.82288194444</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>45926.41898148148</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>45699.43766203704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>45870</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>45926.47118055556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45925.44523148148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>45846.3380787037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>45107.48458333333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45848.64854166667</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>45848.65737268519</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>45930.45800925926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18785,7 +18785,7 @@
         <v>45929.34912037037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>44845</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45590.36142361111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>45617.52900462963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>45762.31237268518</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44383.30501157408</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>45484</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>44501.49077546296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>44350.46327546296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45554.66199074074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>45582.57228009259</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>45162</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>45848.65394675926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44525.3771412037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>45582.57607638889</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>45929.57289351852</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>45929.57436342593</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45602</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45602.34263888889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45602.34721064815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>45469.50715277778</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45777.56392361111</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44816.58288194444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>45526.66439814815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>45027</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45608.50689814815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45846.35457175926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45554.6590162037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>45644.48552083333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44267</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>45216.30402777778</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44522.40350694444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44309.36331018519</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45701</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>45534.45524305556</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>45488.44724537037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>45932.62314814814</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44460.39326388889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45932.62010416666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>45719.37508101852</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45586.54471064815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>45551.58315972222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45056.63667824074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45698.46994212963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45205.40086805556</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45715.44862268519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45933.35277777778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45933.46466435185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45937.43577546296</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>45111.39857638889</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>45937.58770833333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>45937.60611111111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>45022.66271990741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         <v>45937.610625</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22048,7 +22048,7 @@
         <v>44890.52128472222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>45938.49456018519</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>45937.6262037037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44862.33306712963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>45937.62039351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44448.65805555556</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44883.78270833333</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44805</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44712.42891203704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45134</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>45939.37001157407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>45534.64778935185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>45883.62131944444</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>45834</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>45884.59181712963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>45755.4960300926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>45111.52043981481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45945.89071759259</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>45754.34134259259</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>45754.36008101852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45947.48436342592</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>45952.42239583333</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45758.46114583333</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>45954.7355787037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>45953.51040509259</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45954.43909722222</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>45953.46417824074</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>45958.38793981481</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>45958.39484953704</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>45957.40206018519</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>45957.54447916667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>45946.38253472222</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>45959.55204861111</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45966.38342592592</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>45603.33167824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>45966.60378472223</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45469.3924537037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45156</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>45967.4474537037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45967.33152777778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>45967.33255787037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>45972.34230324074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>45972.33707175926</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45972.53399305556</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>45972.6244212963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>45973.4030787037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45973.4175462963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45973.42826388889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>45973.33715277778</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>45973.35025462963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>45973.39857638889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>45973.51217592593</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>45973.36832175926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>45593.66212962963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>45041.56773148148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>45978.59633101852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>45978.44311342593</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>45978.59431712963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>45978.49068287037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>45978.56181712963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>45978.53752314814</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>45978.55541666667</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>45978.53877314815</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>45975.35673611111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>45611.59655092593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>45982.66631944444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45583.34546296296</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45981.34307870371</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>45986.68657407408</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>45986.67872685185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45986.61519675926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45986.62328703704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26309,7 +26309,7 @@
         <v>45985.45576388889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26366,7 +26366,7 @@
         <v>45985.45773148148</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>45986.61143518519</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>45649.34438657408</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>44342</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>45988.4421412037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45712.39575231481</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>46031.50038194445</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>46031.50792824074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45713.42717592593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>45054.4237037037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>45054.44943287037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>46031.51228009259</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45620.68857638889</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>46031.49777777777</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45596.4116087963</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>45341.46197916667</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>45994.32405092593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>45994.47068287037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45646.41528935185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45596.92895833333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>45600.48512731482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45996.37003472223</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>46038.66013888889</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45995.60189814815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45995.64913194445</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>46042.35134259259</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45617.34234953704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>46000.53678240741</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>46041.50413194444</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>45181</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>45624.92115740741</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>46041.57511574074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>46042.53480324074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45180.46878472222</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>46042.64138888889</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>46041.40201388889</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>46042.55055555556</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>46044.45016203704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>46043.40673611111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>46044.68048611111</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>46044.39172453704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>45642.59554398148</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>45645.33822916666</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>46043.37221064815</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>46043.40189814815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>46043.49481481482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>46044.40465277778</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45625.33287037037</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>45547</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>46043.46627314815</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>46043.49569444444</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>46044.68452546297</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>46044.40581018518</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>46044.68167824074</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>46043.37112268519</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>46044.3909375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>46048.42685185185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29829,7 +29829,7 @@
         <v>46048.4766087963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>45152.45767361111</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>46048.67299768519</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30000,7 +30000,7 @@
         <v>46045.32310185185</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>46045.34884259259</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>45432.6987037037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>46045.32743055555</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>46045.33702546296</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>46048.68467592593</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>46046.81304398148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>46047.30560185185</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>46048.86174768519</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45441.70758101852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>46048.42388888889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30647,7 +30647,7 @@
         <v>46048.51607638889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>46048.39998842592</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30771,7 +30771,7 @@
         <v>46048.3146875</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>46048.35344907407</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>46003.36434027777</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>46048.64078703704</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>45715.42207175926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>46048.3558912037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>46048.39863425926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>46048.40377314815</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45758.40640046296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31324,7 +31324,7 @@
         <v>46006.55280092593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>46048.6440162037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>46044.89736111111</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>45671.3278587963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>46048.57344907407</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31619,7 +31619,7 @@
         <v>46045.45112268518</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>46047.62123842593</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>46047.74475694444</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>46050.46310185185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         <v>45989.45607638889</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31914,7 +31914,7 @@
         <v>46050.37806712963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>46050.39554398148</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>46050.40049768519</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>46049.62439814815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>46049.59923611111</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>46049.73991898148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>46050.36653935185</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32338,7 +32338,7 @@
         <v>45757.61045138889</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>46050.37032407407</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>45705</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>46049.76145833333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32581,7 +32581,7 @@
         <v>45642.33047453704</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>46050.45982638889</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>46050.42256944445</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44643.41052083333</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>46049.83738425926</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>46050.36358796297</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>46050.38971064815</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33010,7 +33010,7 @@
         <v>45156</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>46008.7390625</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>46007.43958333333</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>45706.64928240741</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>46052.42894675926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>45243.71267361111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>46009.65140046296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33419,7 +33419,7 @@
         <v>45254.51929398148</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33476,7 +33476,7 @@
         <v>46051.40638888889</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33533,7 +33533,7 @@
         <v>45707.35554398148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33590,7 +33590,7 @@
         <v>46052.34869212963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>46042</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>46009.36662037037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>46052.41415509259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44804.53847222222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>46052.50318287037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>46051.59861111111</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>46052.49001157407</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>46052.49719907407</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>46051.46790509259</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>46051.47976851852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>46051.79657407408</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>46051.78497685185</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>46052.52888888889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>46014.34421296296</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>46013.42375</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>46014.34641203703</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>46010.49428240741</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         <v>46056.63907407408</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>46056.55571759259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>46056.65497685185</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>46056.45778935185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>46052</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>46053.54109953704</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>46013.42856481481</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>46053.53597222222</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>46053.52635416666</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>46056.45893518518</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>46056.46060185185</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>46056.46152777778</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>46056.46603009259</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>46056.45328703704</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>46056.45413194445</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>46056.57664351852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>46056.45658564815</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>46056.46262731482</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>46056.58530092592</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35714,7 +35714,7 @@
         <v>46055.59766203703</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35771,7 +35771,7 @@
         <v>46055.60109953704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>46052</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35885,7 +35885,7 @@
         <v>46052</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35942,7 +35942,7 @@
         <v>44725</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35999,7 +35999,7 @@
         <v>46055.69435185185</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>44781.62321759259</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36113,7 +36113,7 @@
         <v>46055.4175925926</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>46056.8631712963</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         <v>46056.36381944444</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         <v>46056.46402777778</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>46056.60728009259</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>45994.3346875</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>45204</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45134.82828703704</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>46057.72354166667</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>46057.82925925926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36713,7 +36713,7 @@
         <v>46058.58692129629</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36775,7 +36775,7 @@
         <v>46058.56357638889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>46058.56946759259</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36899,7 +36899,7 @@
         <v>46058.57689814815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36961,7 +36961,7 @@
         <v>46058.59034722222</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37023,7 +37023,7 @@
         <v>46058.68724537037</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37080,7 +37080,7 @@
         <v>46057.72561342592</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>45994.33106481482</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>46058.63775462963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>46058.59788194444</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>46058.59868055556</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37380,7 +37380,7 @@
         <v>46009.59115740741</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>46057.52116898148</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44700.6490162037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>46043</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>46043</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>46050</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>46052</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>46059.64305555556</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>45265.79518518518</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37928,7 +37928,7 @@
         <v>46050</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>46043</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38052,7 +38052,7 @@
         <v>46062.56228009259</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38109,7 +38109,7 @@
         <v>45744.62528935185</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38171,7 +38171,7 @@
         <v>46062.56677083333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38228,7 +38228,7 @@
         <v>46049</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38290,7 +38290,7 @@
         <v>46019</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38347,7 +38347,7 @@
         <v>46042</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38409,7 +38409,7 @@
         <v>46049</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38471,7 +38471,7 @@
         <v>46049</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>46049</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38595,7 +38595,7 @@
         <v>46043</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38657,7 +38657,7 @@
         <v>46043</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>46043</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         <v>46051</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>46062.42148148148</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>46062.43238425926</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38967,7 +38967,7 @@
         <v>46062.37336805555</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>46062.44077546296</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>46045</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39143,7 +39143,7 @@
         <v>44797.3377662037</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39200,7 +39200,7 @@
         <v>46049</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39262,7 +39262,7 @@
         <v>46063.35768518518</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39319,7 +39319,7 @@
         <v>46063.42120370371</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39376,7 +39376,7 @@
         <v>45448</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39438,7 +39438,7 @@
         <v>46021</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
         <v>46021</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39552,7 +39552,7 @@
         <v>46055</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39614,7 +39614,7 @@
         <v>46055</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39676,7 +39676,7 @@
         <v>45757.60380787037</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39738,7 +39738,7 @@
         <v>46021</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
         <v>46021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39852,7 +39852,7 @@
         <v>46052</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>46052</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>46064.645625</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45772.41228009259</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>46052</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>46021</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40209,7 +40209,7 @@
         <v>46063.42803240741</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40271,7 +40271,7 @@
         <v>45237.47232638889</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40328,7 +40328,7 @@
         <v>46051</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>46052</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40452,7 +40452,7 @@
         <v>45254</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40509,7 +40509,7 @@
         <v>45254</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>46064.36305555556</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>46064.64170138889</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>46064.64571759259</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40742,7 +40742,7 @@
         <v>46050</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>46050</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         <v>46050</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40928,7 +40928,7 @@
         <v>46052</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>46021</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>46051</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>46055</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41171,7 +41171,7 @@
         <v>46064.64278935185</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>46064.64413194444</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41285,7 +41285,7 @@
         <v>46064.47422453704</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41342,7 +41342,7 @@
         <v>46064.63451388889</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41399,7 +41399,7 @@
         <v>46064.48517361111</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>46064.50446759259</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41518,7 +41518,7 @@
         <v>46064.55339120371</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41575,7 +41575,7 @@
         <v>46064.63734953704</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41632,7 +41632,7 @@
         <v>46064.63939814815</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41689,7 +41689,7 @@
         <v>46052</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41751,7 +41751,7 @@
         <v>46052</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41813,7 +41813,7 @@
         <v>46055</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41875,7 +41875,7 @@
         <v>46021</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41932,7 +41932,7 @@
         <v>46064.3554050926</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41994,7 +41994,7 @@
         <v>46050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42056,7 +42056,7 @@
         <v>46024</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42113,7 +42113,7 @@
         <v>46065.61966435185</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>46066.39734953704</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42232,7 +42232,7 @@
         <v>46065.43962962963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>46056</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42356,7 +42356,7 @@
         <v>45230.35541666667</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42418,7 +42418,7 @@
         <v>46065.32443287037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42480,7 +42480,7 @@
         <v>46055</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>46066.48236111111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42604,7 +42604,7 @@
         <v>46058</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>45754.54916666666</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>46052</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42785,7 +42785,7 @@
         <v>46041.6021875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42842,7 +42842,7 @@
         <v>46065.32719907408</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>46066.42578703703</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42961,7 +42961,7 @@
         <v>46056</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43023,7 +43023,7 @@
         <v>46056</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43085,7 +43085,7 @@
         <v>46056</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>46056</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43209,7 +43209,7 @@
         <v>45240.43925925926</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43271,7 +43271,7 @@
         <v>46066.40208333333</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43333,7 +43333,7 @@
         <v>44915.66561342592</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>46065.47537037037</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>46065.48666666666</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>46065.53934027778</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43576,7 +43576,7 @@
         <v>46065.61357638889</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43638,7 +43638,7 @@
         <v>46065.31940972222</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43700,7 +43700,7 @@
         <v>46065.33519675926</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>46066.49946759259</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>46065.39756944445</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43886,7 +43886,7 @@
         <v>46023.67790509259</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43943,7 +43943,7 @@
         <v>46065.45392361111</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44005,7 +44005,7 @@
         <v>46065.39300925926</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44067,7 +44067,7 @@
         <v>46065.3837037037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44124,7 +44124,7 @@
         <v>46056</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44186,7 +44186,7 @@
         <v>46056</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44248,7 +44248,7 @@
         <v>46058</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44310,7 +44310,7 @@
         <v>46058</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>46057</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44434,7 +44434,7 @@
         <v>46058</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44496,7 +44496,7 @@
         <v>45558.50545138889</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44553,7 +44553,7 @@
         <v>46066.49512731482</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44615,7 +44615,7 @@
         <v>46064</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44672,7 +44672,7 @@
         <v>46065</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>46023.68649305555</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>46070.37762731482</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>46027.59274305555</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>46057</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44972,7 +44972,7 @@
         <v>46057</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45034,7 +45034,7 @@
         <v>46027.49688657407</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         <v>46069.43528935185</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45153,7 +45153,7 @@
         <v>46027.39123842592</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45210,7 +45210,7 @@
         <v>46027.59798611111</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45267,7 +45267,7 @@
         <v>46027.61108796296</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45324,7 +45324,7 @@
         <v>46027.63125</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45381,7 +45381,7 @@
         <v>46070.67081018518</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45443,7 +45443,7 @@
         <v>46027.61621527778</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45500,7 +45500,7 @@
         <v>46027.50319444444</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45562,7 +45562,7 @@
         <v>46027.51408564814</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45619,7 +45619,7 @@
         <v>46069.46402777778</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45676,7 +45676,7 @@
         <v>46069.47755787037</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45733,7 +45733,7 @@
         <v>46070.45606481482</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45795,7 +45795,7 @@
         <v>46070.61300925926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45852,7 +45852,7 @@
         <v>46069.35165509259</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         <v>46070.36003472222</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45971,7 +45971,7 @@
         <v>46070.40189814815</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46033,7 +46033,7 @@
         <v>46070.36159722223</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46090,7 +46090,7 @@
         <v>46043</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46152,7 +46152,7 @@
         <v>46029.38326388889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>46029.38519675926</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
         <v>46071.49969907408</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46328,7 +46328,7 @@
         <v>46071.51452546296</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46390,7 +46390,7 @@
         <v>46071.57961805556</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46447,7 +46447,7 @@
         <v>46049</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>46049</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46561,7 +46561,7 @@
         <v>46049</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>46071.42561342593</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>46049</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46742,7 +46742,7 @@
         <v>46049</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46799,7 +46799,7 @@
         <v>46028.81819444444</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46856,7 +46856,7 @@
         <v>46071.50152777778</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>46071.62350694444</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>46029.6222337963</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>46071.64109953704</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>46055</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47151,7 +47151,7 @@
         <v>46058</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>46071.42413194444</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>46071.4294212963</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>46071.64506944444</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47389,7 +47389,7 @@
         <v>46071.64606481481</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47446,7 +47446,7 @@
         <v>46028.85481481482</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47503,7 +47503,7 @@
         <v>46028.86578703704</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47560,7 +47560,7 @@
         <v>46056</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47622,7 +47622,7 @@
         <v>46042</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>46071.39347222223</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>46071.64030092592</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>46071.39571759259</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>46063</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>46072.47872685185</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47984,7 +47984,7 @@
         <v>46029.38126157408</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
         <v>46072.38101851852</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>46072.38490740741</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>46071.51644675926</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>46071.41292824074</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48279,7 +48279,7 @@
         <v>46028.80164351852</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48336,7 +48336,7 @@
         <v>46029.34457175926</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48393,7 +48393,7 @@
         <v>46029.40497685185</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48450,7 +48450,7 @@
         <v>46029.38788194444</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>46055</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>46071.57877314815</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         <v>46071.49243055555</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48688,7 +48688,7 @@
         <v>45620.6840162037</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>46063</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48802,7 +48802,7 @@
         <v>46049</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>46024</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48916,7 +48916,7 @@
         <v>46072.47118055556</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>46071.64425925926</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>45301</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
         <v>46031.54403935185</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         <v>46076.66048611111</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49211,7 +49211,7 @@
         <v>46073.45125</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49273,7 +49273,7 @@
         <v>46034.48016203703</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49330,7 +49330,7 @@
         <v>46076.35378472223</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49412,7 +49412,7 @@
         <v>46073.55576388889</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49474,7 +49474,7 @@
         <v>46073.55927083334</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49531,7 +49531,7 @@
         <v>46076.43865740741</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>46034.64438657407</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49650,7 +49650,7 @@
         <v>46056</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49707,7 +49707,7 @@
         <v>46034.59131944444</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49764,7 +49764,7 @@
         <v>45656.49635416667</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49821,7 +49821,7 @@
         <v>46063</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49878,7 +49878,7 @@
         <v>46049</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49935,7 +49935,7 @@
         <v>46031.50452546297</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49992,7 +49992,7 @@
         <v>46076.38834490741</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50054,7 +50054,7 @@
         <v>46034.62466435185</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50111,7 +50111,7 @@
         <v>46034.63491898148</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50173,7 +50173,7 @@
         <v>46076.60409722223</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50235,7 +50235,7 @@
         <v>46076.57734953704</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>46034.3709837963</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50354,7 +50354,7 @@
         <v>45323.56510416666</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50411,7 +50411,7 @@
         <v>46073.55927083334</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50473,7 +50473,7 @@
         <v>46073.56230324074</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50535,7 +50535,7 @@
         <v>46033.53333333333</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50592,7 +50592,7 @@
         <v>45167.61197916666</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50649,7 +50649,7 @@
         <v>46073.56005787037</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         <v>45623.58407407408</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50768,7 +50768,7 @@
         <v>46073.41756944444</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50825,7 +50825,7 @@
         <v>46064</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50887,7 +50887,7 @@
         <v>46034.61875</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         <v>46034.62362268518</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51011,7 +51011,7 @@
         <v>46073.39684027778</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51073,7 +51073,7 @@
         <v>46031.59362268518</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51130,7 +51130,7 @@
         <v>46076.64421296296</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51192,7 +51192,7 @@
         <v>46073.66045138889</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51254,7 +51254,7 @@
         <v>46077.40108796296</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51316,7 +51316,7 @@
         <v>45139.67980324074</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51373,7 +51373,7 @@
         <v>46077.55028935185</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51435,7 +51435,7 @@
         <v>46035.44954861111</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51492,7 +51492,7 @@
         <v>46066</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51554,7 +51554,7 @@
         <v>46077.5284837963</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51616,7 +51616,7 @@
         <v>46077.5600462963</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51673,7 +51673,7 @@
         <v>46036.67384259259</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51730,7 +51730,7 @@
         <v>46036.67746527777</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         <v>46036.48025462963</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51844,7 +51844,7 @@
         <v>46065</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         <v>46035.450625</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51963,7 +51963,7 @@
         <v>46036.6075</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52020,7 +52020,7 @@
         <v>46078.41311342592</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52082,7 +52082,7 @@
         <v>46078.6478125</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52139,7 +52139,7 @@
         <v>46036.63581018519</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52196,7 +52196,7 @@
         <v>46036.46466435185</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52253,7 +52253,7 @@
         <v>46065</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52315,7 +52315,7 @@
         <v>46066</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52377,7 +52377,7 @@
         <v>46077.45247685185</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52439,7 +52439,7 @@
         <v>45548.50462962963</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52501,7 +52501,7 @@
         <v>46036.45693287037</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52558,7 +52558,7 @@
         <v>46036.47611111111</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52615,7 +52615,7 @@
         <v>46036.49285879629</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52672,7 +52672,7 @@
         <v>46036</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52734,7 +52734,7 @@
         <v>46035.65653935185</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52791,7 +52791,7 @@
         <v>46059</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52853,7 +52853,7 @@
         <v>46036.59059027778</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52910,7 +52910,7 @@
         <v>46036.60131944445</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52967,7 +52967,7 @@
         <v>46036.37615740741</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53024,7 +53024,7 @@
         <v>46077.3556712963</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53081,7 +53081,7 @@
         <v>46065</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53143,7 +53143,7 @@
         <v>46036</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53205,7 +53205,7 @@
         <v>46036</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53267,7 +53267,7 @@
         <v>46036.60565972222</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53324,7 +53324,7 @@
         <v>46036.67594907407</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53381,7 +53381,7 @@
         <v>46077.4090162037</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         <v>46066</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53505,7 +53505,7 @@
         <v>46077.52480324074</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53567,7 +53567,7 @@
         <v>46035.65622685185</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53624,7 +53624,7 @@
         <v>46035.48829861111</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53681,7 +53681,7 @@
         <v>46036.48780092593</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53738,7 +53738,7 @@
         <v>46066</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53800,7 +53800,7 @@
         <v>46036.44969907407</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53857,7 +53857,7 @@
         <v>46069</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53919,7 +53919,7 @@
         <v>46065</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53981,7 +53981,7 @@
         <v>46063</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54043,7 +54043,7 @@
         <v>46077.45145833334</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54105,7 +54105,7 @@
         <v>46077.5847337963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54167,7 +54167,7 @@
         <v>46077.59396990741</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54229,7 +54229,7 @@
         <v>46078.34746527778</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>46077.54719907408</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54348,7 +54348,7 @@
         <v>46078.40826388889</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54410,7 +54410,7 @@
         <v>46078.41482638889</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54472,7 +54472,7 @@
         <v>46037.54207175926</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54529,7 +54529,7 @@
         <v>46037.46747685185</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54586,7 +54586,7 @@
         <v>46037.54952546296</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54643,7 +54643,7 @@
         <v>46065</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54705,7 +54705,7 @@
         <v>46079.50302083333</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54767,7 +54767,7 @@
         <v>46079.55365740741</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54829,7 +54829,7 @@
         <v>46079.61737268518</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54886,7 +54886,7 @@
         <v>46038.57648148148</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54943,7 +54943,7 @@
         <v>46038.58046296296</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55000,7 +55000,7 @@
         <v>46044</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55062,7 +55062,7 @@
         <v>44953</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55124,7 +55124,7 @@
         <v>46080.50643518518</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55181,7 +55181,7 @@
         <v>46080.51189814815</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55238,7 +55238,7 @@
         <v>46069</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55300,7 +55300,7 @@
         <v>46038</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55362,7 +55362,7 @@
         <v>46079.67010416667</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55424,7 +55424,7 @@
         <v>46049</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55481,7 +55481,7 @@
         <v>45132.37506944445</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55543,7 +55543,7 @@
         <v>46038</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55605,7 +55605,7 @@
         <v>46038.48903935185</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55662,7 +55662,7 @@
         <v>46043</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55724,7 +55724,7 @@
         <v>45139.6669212963</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55781,7 +55781,7 @@
         <v>46080.54821759259</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55843,7 +55843,7 @@
         <v>46038.33611111111</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55900,7 +55900,7 @@
         <v>46037.470625</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55957,7 +55957,7 @@
         <v>46079.56581018519</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56014,7 +56014,7 @@
         <v>46079.61864583333</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56071,7 +56071,7 @@
         <v>44950</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56128,7 +56128,7 @@
         <v>46069</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56190,7 +56190,7 @@
         <v>46055</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56252,7 +56252,7 @@
         <v>45600.48857638889</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56309,7 +56309,7 @@
         <v>46080.55276620371</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56371,7 +56371,7 @@
         <v>46080.63023148148</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56428,7 +56428,7 @@
         <v>46065</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56490,7 +56490,7 @@
         <v>46056</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56552,7 +56552,7 @@
         <v>46038.57928240741</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56629,7 +56629,7 @@
         <v>46038</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56691,7 +56691,7 @@
         <v>45609.31627314815</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56753,7 +56753,7 @@
         <v>46038.625625</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56810,7 +56810,7 @@
         <v>46038.44782407407</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56867,7 +56867,7 @@
         <v>46037.49280092592</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56924,7 +56924,7 @@
         <v>44358</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56986,7 +56986,7 @@
         <v>45258.52659722222</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         <v>44406.33724537037</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -57100,7 +57100,7 @@
         <v>44377</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -57157,7 +57157,7 @@
         <v>45261</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57214,7 +57214,7 @@
         <v>44915</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57271,7 +57271,7 @@
         <v>45069</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57328,7 +57328,7 @@
         <v>44839</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57390,7 +57390,7 @@
         <v>45733.57708333333</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57447,7 +57447,7 @@
         <v>45747.33708333333</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57504,7 +57504,7 @@
         <v>45107.38415509259</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57566,7 +57566,7 @@
         <v>45156</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57628,7 +57628,7 @@
         <v>44950</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57685,7 +57685,7 @@
         <v>45615.39707175926</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57742,7 +57742,7 @@
         <v>45054.36821759259</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57804,7 +57804,7 @@
         <v>45134.05142361111</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45134</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57928,7 +57928,7 @@
         <v>45488.46547453704</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57985,7 +57985,7 @@
         <v>45608.61949074074</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -58047,7 +58047,7 @@
         <v>45608.62261574074</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -58109,7 +58109,7 @@
         <v>45139.65960648148</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -58166,7 +58166,7 @@
         <v>45488.47298611111</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58223,7 +58223,7 @@
         <v>45223.58224537037</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58285,7 +58285,7 @@
         <v>45068.53083333333</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58347,7 +58347,7 @@
         <v>45678.59506944445</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58404,7 +58404,7 @@
         <v>45628.36787037037</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58461,7 +58461,7 @@
         <v>45621.48976851852</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58523,7 +58523,7 @@
         <v>45211</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58585,7 +58585,7 @@
         <v>45771.4179050926</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58647,7 +58647,7 @@
         <v>45771.42100694445</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58709,7 +58709,7 @@
         <v>45581</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         <v>45068.47928240741</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58833,7 +58833,7 @@
         <v>45551.59668981482</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58890,7 +58890,7 @@
         <v>45237</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58947,7 +58947,7 @@
         <v>45646.33236111111</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -59004,7 +59004,7 @@
         <v>45169.45846064815</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -59061,7 +59061,7 @@
         <v>45337</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -59118,7 +59118,7 @@
         <v>45048.62515046296</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -59175,7 +59175,7 @@
         <v>45107.63166666667</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -59232,7 +59232,7 @@
         <v>45156</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59294,7 +59294,7 @@
         <v>45674.64923611111</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59351,7 +59351,7 @@
         <v>45252.81868055555</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59408,7 +59408,7 @@
         <v>44986</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59465,7 +59465,7 @@
         <v>44987.31462962963</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59522,7 +59522,7 @@
         <v>45544.3700462963</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59579,7 +59579,7 @@
         <v>45726.56340277778</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59636,7 +59636,7 @@
         <v>45742.53079861111</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59698,7 +59698,7 @@
         <v>45776.59355324074</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59755,7 +59755,7 @@
         <v>45776</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59812,7 +59812,7 @@
         <v>45784.42454861111</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59869,7 +59869,7 @@
         <v>45785.48791666667</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59926,7 +59926,7 @@
         <v>45608.66064814815</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59983,7 +59983,7 @@
         <v>45617.35549768519</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -60045,7 +60045,7 @@
         <v>45786.48606481482</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -60107,7 +60107,7 @@
         <v>45258</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -60164,7 +60164,7 @@
         <v>45519.47035879629</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -60221,7 +60221,7 @@
         <v>45544.3709837963</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -60278,7 +60278,7 @@
         <v>45786.50910879629</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60340,7 +60340,7 @@
         <v>45455.39258101852</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60397,7 +60397,7 @@
         <v>45786.50641203704</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60459,7 +60459,7 @@
         <v>45478</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60521,7 +60521,7 @@
         <v>44746.58283564815</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60578,7 +60578,7 @@
         <v>45453.36412037037</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60635,7 +60635,7 @@
         <v>45790.60747685185</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60692,7 +60692,7 @@
         <v>45593.66165509259</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60749,7 +60749,7 @@
         <v>45792.55434027778</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60811,7 +60811,7 @@
         <v>45791.61199074074</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60873,7 +60873,7 @@
         <v>45776.45578703703</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60935,7 +60935,7 @@
         <v>45282</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60992,7 +60992,7 @@
         <v>45434.65519675926</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -61049,7 +61049,7 @@
         <v>45621.34652777778</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         <v>44659</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -61163,7 +61163,7 @@
         <v>45468.38417824074</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -61220,7 +61220,7 @@
         <v>45754.56815972222</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -61277,7 +61277,7 @@
         <v>44267.69099537037</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61339,7 +61339,7 @@
         <v>45747.58980324074</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61401,7 +61401,7 @@
         <v>45596.34179398148</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61458,7 +61458,7 @@
         <v>45800.49399305556</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61520,7 +61520,7 @@
         <v>45800.49899305555</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61582,7 +61582,7 @@
         <v>45800.49638888889</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61644,7 +61644,7 @@
         <v>45800.45778935185</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61706,7 +61706,7 @@
         <v>45800.48542824074</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -61768,7 +61768,7 @@
         <v>45800.48849537037</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -61830,7 +61830,7 @@
         <v>45800.43626157408</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -61887,7 +61887,7 @@
         <v>45800.65675925926</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -61949,7 +61949,7 @@
         <v>45803.45716435185</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         <v>45803.38435185186</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -62073,7 +62073,7 @@
         <v>45803.36275462963</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -62130,7 +62130,7 @@
         <v>45803.60325231482</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
